--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-13\Desktop\folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-34\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0124C1BD-3A05-4642-9921-05FEFBC8EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34999DBA-F528-459B-AE80-70BDA091832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operations" sheetId="2" r:id="rId1"/>
-    <sheet name="dictionary" sheetId="3" r:id="rId2"/>
+    <sheet name="1" sheetId="4" r:id="rId2"/>
+    <sheet name="dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="42">
   <si>
     <t>Bank</t>
   </si>
@@ -138,16 +161,41 @@
   <si>
     <t>Income</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>Scholarships</t>
+  </si>
+  <si>
+    <t>Other Incomes</t>
+  </si>
+  <si>
+    <t>Millenium</t>
+  </si>
+  <si>
+    <t>Closing balance</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Opening balance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
-    <numFmt numFmtId="168" formatCode="mmmm"/>
+    <numFmt numFmtId="165" formatCode="mmmm"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,9 +206,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,21 +241,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -244,7 +357,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06FB2292-5AEA-432F-8128-9E05D027336D}" name="Table2" displayName="Table2" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06FB2292-5AEA-432F-8128-9E05D027336D}" name="operations" displayName="operations" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:G1048576" xr:uid="{06FB2292-5AEA-432F-8128-9E05D027336D}">
     <filterColumn colId="0">
       <customFilters>
@@ -266,10 +379,71 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3438EF6C-EBDA-4A20-A913-FFB56B6BFDE3}" name="Table6" displayName="Table6" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{D08145FA-2B31-4447-A365-BD5CF6F8B50D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1EA9A758-C67C-4510-84BB-0812CB482B57}" name="Bank" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{549368D9-B3F1-424B-B43C-29A96F88CA45}" name="Product"/>
+    <tableColumn id="3" xr3:uid="{1BE67E26-0DC1-4714-BE9B-D0D467B8CBE5}" name="Opening balance" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
+      <totalsRowFormula>SUBTOTAL(9,Table6[Opening balance])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1BF66AA6-D374-4036-86CE-96C01ED2AA19}" name="Operations" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(9,Table6[Operations])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EDC59951-C328-4A3E-9138-3F195AE6EDB4}" name="Closing balance" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
+      <calculatedColumnFormula>Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(9,Table6[Closing balance])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487994E2-32A2-45A6-A3CB-C6C3A659CA0D}" name="Table7" displayName="Table7" ref="G1:H8" totalsRowCount="1">
+  <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{846EB052-EA58-4BB0-83E9-B99C78843362}" name="Category" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{E5FDE1B7-4EE4-49E5-BB58-9E3799D55433}" name="Total" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+      <totalsRowFormula>SUBTOTAL(9,Table7[Total])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CCCA0B0A-D0ED-4BB2-BD06-423451A74183}" name="Table8" displayName="Table8" ref="J1:K11" totalsRowCount="1">
+  <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DD7A1F8F-832C-4615-B52A-E4E3E17C1FE4}" name="Category" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{F0F76304-01C8-474D-BE78-031C4407FBA6}" name="Total" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+      <totalsRowFormula>SUBTOTAL(9,Table8[Total])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7F50923B-D78D-4576-8F24-63B19A4222B9}" name="Table9" displayName="Table9" ref="A13:B17" totalsRowCount="1">
+  <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{43914533-C96D-4857-92E5-964D9C3BD621}" name="Type" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{A7D39D6C-A4D8-45EA-B0A4-02A5C390F394}" name="Total" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+      <totalsRowFormula>SUBTOTAL(9,Table9[Total])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC346233-4CB7-41B2-A903-0B776C034E39}" name="Table1" displayName="Table1" ref="A1:B17" totalsRowShown="0">
   <autoFilter ref="A1:B17" xr:uid="{CC346233-4CB7-41B2-A903-0B776C034E39}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{43698C38-7DBA-45F9-8C9C-F627B7DC1B02}" name="Category" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{43698C38-7DBA-45F9-8C9C-F627B7DC1B02}" name="Category" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{8D835F55-E4CF-4163-8C5C-F93430B9BFAA}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -575,15 +749,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD4FC0-ED61-44FB-852D-53E3AF5E902C}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -627,14 +801,14 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F2" s="3">
         <v>45296</v>
       </c>
       <c r="G2" s="4">
-        <f>MONTH(Table2[[#This Row],[Date]])</f>
+        <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
     </row>
@@ -652,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F3" s="3">
@@ -676,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F4" s="3">
@@ -700,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F5" s="3">
@@ -724,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F6" s="3">
@@ -748,7 +922,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F7" s="3">
@@ -772,7 +946,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F8" s="3">
@@ -796,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F9" s="3">
@@ -820,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F10" s="3">
@@ -844,7 +1018,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F11" s="3">
@@ -868,7 +1042,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F12" s="3">
@@ -892,7 +1066,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F13" s="3">
@@ -916,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F14" s="3">
@@ -940,7 +1114,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F15" s="3">
@@ -964,7 +1138,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F16" s="3">
@@ -988,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F17" s="3">
@@ -1012,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F18" s="3">
@@ -1036,7 +1210,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F19" s="3">
@@ -1060,7 +1234,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F20" s="3">
@@ -1084,7 +1258,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F21" s="3">
@@ -1108,7 +1282,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F22" s="3">
@@ -1132,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F23" s="3">
@@ -1156,7 +1330,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F24" s="3">
@@ -1180,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F25" s="3">
@@ -1204,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F26" s="3">
@@ -1228,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F27" s="3">
@@ -1252,7 +1426,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F28" s="3">
@@ -1276,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F29" s="3">
@@ -1300,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F30" s="3">
@@ -1324,7 +1498,7 @@
         <v>24</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F31" s="3">
@@ -1348,7 +1522,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F32" s="3">
@@ -1372,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F33" s="3">
@@ -1396,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F34" s="3">
@@ -1420,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F35" s="3">
@@ -1444,7 +1618,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F36" s="3">
@@ -1468,7 +1642,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F37" s="3">
@@ -1492,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F38" s="3">
@@ -1516,7 +1690,7 @@
         <v>30</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F39" s="3">
@@ -1540,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F40" s="3">
@@ -1564,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F41" s="3">
@@ -1588,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F42" s="3">
@@ -1612,7 +1786,7 @@
         <v>28</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F43" s="3">
@@ -1636,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F44" s="3">
@@ -1660,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F45" s="3">
@@ -1684,7 +1858,7 @@
         <v>17</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F46" s="3">
@@ -1708,7 +1882,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F47" s="3">
@@ -1732,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F48" s="3">
@@ -1756,7 +1930,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F49" s="3">
@@ -1780,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F50" s="3">
@@ -1804,7 +1978,7 @@
         <v>17</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F51" s="3">
@@ -1828,7 +2002,7 @@
         <v>26</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F52" s="3">
@@ -1852,7 +2026,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F53" s="3">
@@ -1876,7 +2050,7 @@
         <v>17</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F54" s="3">
@@ -1900,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F55" s="3">
@@ -1924,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F56" s="3">
@@ -1948,7 +2122,7 @@
         <v>19</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F57" s="3">
@@ -1972,7 +2146,7 @@
         <v>17</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F58" s="3">
@@ -1996,7 +2170,7 @@
         <v>24</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F59" s="3">
@@ -2020,7 +2194,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F60" s="3">
@@ -2044,7 +2218,7 @@
         <v>23</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F61" s="3">
@@ -2068,7 +2242,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F62" s="3">
@@ -2092,7 +2266,7 @@
         <v>21</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F63" s="3">
@@ -2116,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F64" s="3">
@@ -2140,7 +2314,7 @@
         <v>28</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F65" s="3">
@@ -2164,7 +2338,7 @@
         <v>17</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F66" s="3">
@@ -2188,7 +2362,7 @@
         <v>26</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F67" s="3">
@@ -2212,7 +2386,7 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F68" s="3">
@@ -2236,7 +2410,7 @@
         <v>22</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F69" s="3">
@@ -2260,7 +2434,7 @@
         <v>31</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F70" s="3">
@@ -2284,7 +2458,7 @@
         <v>31</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F71" s="3">
@@ -2308,7 +2482,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F72" s="3">
@@ -2332,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F73" s="3">
@@ -2356,7 +2530,7 @@
         <v>24</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F74" s="3">
@@ -2380,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F75" s="3">
@@ -2404,7 +2578,7 @@
         <v>17</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F76" s="3">
@@ -2428,7 +2602,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F77" s="3">
@@ -2452,7 +2626,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F78" s="3">
@@ -2476,7 +2650,7 @@
         <v>17</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F79" s="3">
@@ -2500,7 +2674,7 @@
         <v>17</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F80" s="3">
@@ -2524,7 +2698,7 @@
         <v>23</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F81" s="3">
@@ -2548,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F82" s="3">
@@ -2572,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F83" s="3">
@@ -2596,7 +2770,7 @@
         <v>26</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F84" s="3">
@@ -2620,7 +2794,7 @@
         <v>18</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F85" s="3">
@@ -2644,7 +2818,7 @@
         <v>17</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F86" s="3">
@@ -2668,7 +2842,7 @@
         <v>31</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F87" s="3">
@@ -2692,7 +2866,7 @@
         <v>31</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F88" s="3">
@@ -2716,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F89" s="3">
@@ -2740,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F90" s="3">
@@ -2764,7 +2938,7 @@
         <v>19</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F91" s="3">
@@ -2788,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F92" s="3">
@@ -2812,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F93" s="3">
@@ -2836,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F94" s="3">
@@ -2860,7 +3034,7 @@
         <v>26</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F95" s="3">
@@ -2884,7 +3058,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F96" s="3">
@@ -2908,7 +3082,7 @@
         <v>17</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F97" s="3">
@@ -2932,7 +3106,7 @@
         <v>31</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F98" s="3">
@@ -2956,7 +3130,7 @@
         <v>31</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F99" s="3">
@@ -2980,7 +3154,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F100" s="3">
@@ -3004,7 +3178,7 @@
         <v>17</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F101" s="3">
@@ -3028,7 +3202,7 @@
         <v>17</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F102" s="3">
@@ -3052,7 +3226,7 @@
         <v>22</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F103" s="3">
@@ -3076,7 +3250,7 @@
         <v>19</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F104" s="3">
@@ -3100,7 +3274,7 @@
         <v>25</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F105" s="3">
@@ -3124,7 +3298,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F106" s="3">
@@ -3148,7 +3322,7 @@
         <v>17</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F107" s="3">
@@ -3172,7 +3346,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F108" s="3">
@@ -3196,7 +3370,7 @@
         <v>26</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F109" s="3">
@@ -3220,7 +3394,7 @@
         <v>18</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F110" s="3">
@@ -3244,7 +3418,7 @@
         <v>17</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F111" s="3">
@@ -3268,7 +3442,7 @@
         <v>31</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F112" s="3">
@@ -3292,7 +3466,7 @@
         <v>31</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F113" s="3">
@@ -3316,7 +3490,7 @@
         <v>21</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F114" s="3">
@@ -3340,7 +3514,7 @@
         <v>29</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F115" s="3">
@@ -3364,7 +3538,7 @@
         <v>20</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F116" s="3">
@@ -3388,7 +3562,7 @@
         <v>28</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F117" s="3">
@@ -3412,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F118" s="3">
@@ -3436,7 +3610,7 @@
         <v>17</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F119" s="3">
@@ -3460,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F120" s="3">
@@ -3484,7 +3658,7 @@
         <v>27</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F121" s="3">
@@ -3508,7 +3682,7 @@
         <v>17</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F122" s="3">
@@ -3532,7 +3706,7 @@
         <v>17</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F123" s="3">
@@ -3556,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F124" s="3">
@@ -3580,7 +3754,7 @@
         <v>16</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F125" s="3">
@@ -3604,7 +3778,7 @@
         <v>17</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F126" s="3">
@@ -3628,7 +3802,7 @@
         <v>26</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F127" s="3">
@@ -3652,7 +3826,7 @@
         <v>18</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F128" s="3">
@@ -3676,7 +3850,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F129" s="3">
@@ -3700,7 +3874,7 @@
         <v>31</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F130" s="3">
@@ -3724,7 +3898,7 @@
         <v>31</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F131" s="3">
@@ -3748,7 +3922,7 @@
         <v>21</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F132" s="3">
@@ -3772,7 +3946,7 @@
         <v>17</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F133" s="3">
@@ -3796,7 +3970,7 @@
         <v>29</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F134" s="3">
@@ -3820,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F135" s="3">
@@ -3844,7 +4018,7 @@
         <v>17</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F136" s="3">
@@ -3868,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F137" s="3">
@@ -3892,7 +4066,7 @@
         <v>22</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F138" s="3">
@@ -3916,7 +4090,7 @@
         <v>27</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F139" s="3">
@@ -3940,7 +4114,7 @@
         <v>29</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F140" s="3">
@@ -3964,7 +4138,7 @@
         <v>16</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F141" s="3">
@@ -3988,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F142" s="3">
@@ -4012,7 +4186,7 @@
         <v>19</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F143" s="3">
@@ -4036,7 +4210,7 @@
         <v>17</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F144" s="3">
@@ -4060,7 +4234,7 @@
         <v>26</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F145" s="3">
@@ -4084,7 +4258,7 @@
         <v>20</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F146" s="3">
@@ -4108,7 +4282,7 @@
         <v>18</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F147" s="3">
@@ -4132,7 +4306,7 @@
         <v>31</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F148" s="3">
@@ -4156,7 +4330,7 @@
         <v>31</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F149" s="3">
@@ -4180,7 +4354,7 @@
         <v>17</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F150" s="3">
@@ -4204,7 +4378,7 @@
         <v>16</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F151" s="3">
@@ -4228,7 +4402,7 @@
         <v>19</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F152" s="3">
@@ -4252,7 +4426,7 @@
         <v>17</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F153" s="3">
@@ -4276,7 +4450,7 @@
         <v>26</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F154" s="3">
@@ -4300,7 +4474,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F155" s="3">
@@ -4324,7 +4498,7 @@
         <v>18</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F156" s="3">
@@ -4348,7 +4522,7 @@
         <v>31</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F157" s="3">
@@ -4372,7 +4546,7 @@
         <v>31</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F158" s="3">
@@ -4396,7 +4570,7 @@
         <v>26</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F159" s="3">
@@ -4420,7 +4594,7 @@
         <v>18</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F160" s="3">
@@ -4444,7 +4618,7 @@
         <v>16</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F161" s="3">
@@ -4468,7 +4642,7 @@
         <v>17</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F162" s="3">
@@ -4492,7 +4666,7 @@
         <v>19</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F163" s="3">
@@ -4516,7 +4690,7 @@
         <v>20</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F164" s="3">
@@ -4540,7 +4714,7 @@
         <v>31</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F165" s="3">
@@ -4564,7 +4738,7 @@
         <v>31</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Transfer</v>
       </c>
       <c r="F166" s="3">
@@ -4588,7 +4762,7 @@
         <v>17</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F167" s="3">
@@ -4612,7 +4786,7 @@
         <v>21</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F168" s="3">
@@ -4636,7 +4810,7 @@
         <v>16</v>
       </c>
       <c r="E169" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F169" s="3">
@@ -4660,7 +4834,7 @@
         <v>17</v>
       </c>
       <c r="E170" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F170" s="3">
@@ -4684,7 +4858,7 @@
         <v>22</v>
       </c>
       <c r="E171" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F171" s="3">
@@ -4708,7 +4882,7 @@
         <v>24</v>
       </c>
       <c r="E172" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F172" s="3">
@@ -4732,7 +4906,7 @@
         <v>22</v>
       </c>
       <c r="E173" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F173" s="3">
@@ -4756,7 +4930,7 @@
         <v>17</v>
       </c>
       <c r="E174" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F174" s="3">
@@ -4780,7 +4954,7 @@
         <v>21</v>
       </c>
       <c r="E175" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F175" s="3">
@@ -4804,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="E176" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F176" s="3">
@@ -4828,7 +5002,7 @@
         <v>16</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F177" s="3">
@@ -4852,7 +5026,7 @@
         <v>20</v>
       </c>
       <c r="E178" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F178" s="3">
@@ -4876,7 +5050,7 @@
         <v>17</v>
       </c>
       <c r="E179" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F179" s="3">
@@ -4900,7 +5074,7 @@
         <v>16</v>
       </c>
       <c r="E180" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F180" s="3">
@@ -4924,7 +5098,7 @@
         <v>20</v>
       </c>
       <c r="E181" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F181" s="3">
@@ -4948,7 +5122,7 @@
         <v>16</v>
       </c>
       <c r="E182" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F182" s="3">
@@ -4972,7 +5146,7 @@
         <v>24</v>
       </c>
       <c r="E183" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F183" s="3">
@@ -4996,7 +5170,7 @@
         <v>29</v>
       </c>
       <c r="E184" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F184" s="3">
@@ -5020,7 +5194,7 @@
         <v>17</v>
       </c>
       <c r="E185" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F185" s="3">
@@ -5044,7 +5218,7 @@
         <v>17</v>
       </c>
       <c r="E186" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F186" s="3">
@@ -5068,7 +5242,7 @@
         <v>17</v>
       </c>
       <c r="E187" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F187" s="3">
@@ -5092,7 +5266,7 @@
         <v>21</v>
       </c>
       <c r="E188" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F188" s="3">
@@ -5116,7 +5290,7 @@
         <v>24</v>
       </c>
       <c r="E189" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F189" s="3">
@@ -5140,7 +5314,7 @@
         <v>22</v>
       </c>
       <c r="E190" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F190" s="3">
@@ -5164,7 +5338,7 @@
         <v>21</v>
       </c>
       <c r="E191" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F191" s="3">
@@ -5188,7 +5362,7 @@
         <v>24</v>
       </c>
       <c r="E192" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F192" s="3">
@@ -5212,7 +5386,7 @@
         <v>22</v>
       </c>
       <c r="E193" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F193" s="3">
@@ -5236,7 +5410,7 @@
         <v>20</v>
       </c>
       <c r="E194" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F194" s="3">
@@ -5260,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="E195" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F195" s="3">
@@ -5284,7 +5458,7 @@
         <v>17</v>
       </c>
       <c r="E196" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F196" s="3">
@@ -5308,7 +5482,7 @@
         <v>17</v>
       </c>
       <c r="E197" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F197" s="3">
@@ -5332,7 +5506,7 @@
         <v>26</v>
       </c>
       <c r="E198" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F198" s="3">
@@ -5356,7 +5530,7 @@
         <v>18</v>
       </c>
       <c r="E199" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F199" s="3">
@@ -5380,7 +5554,7 @@
         <v>20</v>
       </c>
       <c r="E200" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F200" s="3">
@@ -5404,7 +5578,7 @@
         <v>23</v>
       </c>
       <c r="E201" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F201" s="3">
@@ -5428,7 +5602,7 @@
         <v>17</v>
       </c>
       <c r="E202" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F202" s="3">
@@ -5452,7 +5626,7 @@
         <v>29</v>
       </c>
       <c r="E203" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F203" s="3">
@@ -5476,7 +5650,7 @@
         <v>20</v>
       </c>
       <c r="E204" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F204" s="3">
@@ -5500,7 +5674,7 @@
         <v>29</v>
       </c>
       <c r="E205" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Income</v>
       </c>
       <c r="F205" s="3">
@@ -5524,7 +5698,7 @@
         <v>24</v>
       </c>
       <c r="E206" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F206" s="3">
@@ -5548,7 +5722,7 @@
         <v>17</v>
       </c>
       <c r="E207" s="1" t="str">
-        <f>_xlfn.XLOOKUP(Table2[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
+        <f>_xlfn.XLOOKUP(operations[[#This Row],[Category]],Table1[Category], Table1[Type],"", 0, 1)</f>
         <v>Expense</v>
       </c>
       <c r="F207" s="3">
@@ -5567,6 +5741,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837977F6-7D46-442B-B33F-C9C4A8E1A145}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5">
+        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="5">
+        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
+        <v>10.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>600</v>
+      </c>
+      <c r="D4" s="5">
+        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
+        <v>-1500</v>
+      </c>
+      <c r="E4" s="5">
+        <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
+        <v>2100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="5">
+        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
+        <v>2000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>200</v>
+      </c>
+      <c r="D7" s="5">
+        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5">
+        <f>SUBTOTAL(9,Table7[Total])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5">
+        <f>SUBTOTAL(9,Table6[Opening balance])</f>
+        <v>2940.5</v>
+      </c>
+      <c r="D9" s="5">
+        <f ca="1">SUBTOTAL(9,Table6[Operations])</f>
+        <v>-1500</v>
+      </c>
+      <c r="E9" s="5">
+        <f ca="1">SUBTOTAL(9,Table6[Closing balance])</f>
+        <v>4440.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="5">
+        <f>SUBTOTAL(9,Table8[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUBTOTAL(9,Table9[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F3DB42-AEAF-4104-BB3B-345434C975C5}">
   <dimension ref="A1:B17"/>
   <sheetViews>

--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-34\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivaldi\Завантаження\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34999DBA-F528-459B-AE80-70BDA091832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70006C4D-FA6D-4FE0-983E-8214B7525DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operations" sheetId="2" r:id="rId1"/>
     <sheet name="1" sheetId="4" r:id="rId2"/>
-    <sheet name="dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="41">
   <si>
     <t>Bank</t>
   </si>
@@ -174,9 +176,6 @@
     <t>Other Incomes</t>
   </si>
   <si>
-    <t>Millenium</t>
-  </si>
-  <si>
     <t>Closing balance</t>
   </si>
   <si>
@@ -233,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -250,45 +249,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Зв'язана клітинка" xfId="1" builtinId="24"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
     </dxf>
@@ -343,6 +471,96 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -357,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06FB2292-5AEA-432F-8128-9E05D027336D}" name="operations" displayName="operations" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06FB2292-5AEA-432F-8128-9E05D027336D}" name="operations" displayName="operations" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:G1048576" xr:uid="{06FB2292-5AEA-432F-8128-9E05D027336D}">
     <filterColumn colId="0">
       <customFilters>
@@ -384,14 +602,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1EA9A758-C67C-4510-84BB-0812CB482B57}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{549368D9-B3F1-424B-B43C-29A96F88CA45}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{1BE67E26-0DC1-4714-BE9B-D0D467B8CBE5}" name="Opening balance" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{1BE67E26-0DC1-4714-BE9B-D0D467B8CBE5}" name="Opening balance" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(9,Table6[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BF66AA6-D374-4036-86CE-96C01ED2AA19}" name="Operations" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="1">
-      <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{1BF66AA6-D374-4036-86CE-96C01ED2AA19}" name="Operations" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Table6[[#This Row],[Bank]],operations[Product],Table6[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Table6[Operations])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EDC59951-C328-4A3E-9138-3F195AE6EDB4}" name="Closing balance" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{EDC59951-C328-4A3E-9138-3F195AE6EDB4}" name="Closing balance" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Table6[Closing balance])</totalsRowFormula>
     </tableColumn>
@@ -405,7 +623,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{846EB052-EA58-4BB0-83E9-B99C78843362}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{E5FDE1B7-4EE4-49E5-BB58-9E3799D55433}" name="Total" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="2" xr3:uid="{E5FDE1B7-4EE4-49E5-BB58-9E3799D55433}" name="Total" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
       <totalsRowFormula>SUBTOTAL(9,Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -418,7 +636,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD7A1F8F-832C-4615-B52A-E4E3E17C1FE4}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F0F76304-01C8-474D-BE78-031C4407FBA6}" name="Total" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="2" xr3:uid="{F0F76304-01C8-474D-BE78-031C4407FBA6}" name="Total" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(9,Table8[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -431,7 +649,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{43914533-C96D-4857-92E5-964D9C3BD621}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{A7D39D6C-A4D8-45EA-B0A4-02A5C390F394}" name="Total" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="2" xr3:uid="{A7D39D6C-A4D8-45EA-B0A4-02A5C390F394}" name="Total" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(9,Table9[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -443,17 +661,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC346233-4CB7-41B2-A903-0B776C034E39}" name="Table1" displayName="Table1" ref="A1:B17" totalsRowShown="0">
   <autoFilter ref="A1:B17" xr:uid="{CC346233-4CB7-41B2-A903-0B776C034E39}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{43698C38-7DBA-45F9-8C9C-F627B7DC1B02}" name="Category" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{43698C38-7DBA-45F9-8C9C-F627B7DC1B02}" name="Category" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{8D835F55-E4CF-4163-8C5C-F93430B9BFAA}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0AC74F63-A4DF-4A94-8C9D-80C0CBD99039}" name="Products" displayName="Products" ref="D1:E8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="D1:E8" xr:uid="{0AC74F63-A4DF-4A94-8C9D-80C0CBD99039}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E8">
+    <sortCondition ref="D2:D8"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CE0DD4A3-563A-449E-B741-DA1306191CC4}" name="Bank" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C8B335C9-C5D4-45AE-B370-CA14E8329EC7}" name="Product" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема &quot;Office 2013 – 2022&quot;">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -597,7 +829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,22 +981,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD4FC0-ED61-44FB-852D-53E3AF5E902C}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,11 +1015,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>-1500</v>
       </c>
@@ -807,12 +1039,12 @@
       <c r="F2" s="3">
         <v>45296</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="20">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>4500</v>
       </c>
@@ -832,11 +1064,12 @@
       <c r="F3" s="3">
         <v>45297</v>
       </c>
-      <c r="G3" s="4">
-        <v>45297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-2000</v>
       </c>
@@ -856,11 +1089,12 @@
       <c r="F4" s="3">
         <v>45298</v>
       </c>
-      <c r="G4" s="4">
-        <v>45298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-45</v>
       </c>
@@ -880,11 +1114,12 @@
       <c r="F5" s="3">
         <v>45299</v>
       </c>
-      <c r="G5" s="4">
-        <v>45299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-150</v>
       </c>
@@ -904,11 +1139,12 @@
       <c r="F6" s="3">
         <v>45300</v>
       </c>
-      <c r="G6" s="4">
-        <v>45300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-120</v>
       </c>
@@ -928,11 +1164,12 @@
       <c r="F7" s="3">
         <v>45301</v>
       </c>
-      <c r="G7" s="4">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>500</v>
       </c>
@@ -952,11 +1189,12 @@
       <c r="F8" s="3">
         <v>45302</v>
       </c>
-      <c r="G8" s="4">
-        <v>45302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>-500</v>
       </c>
@@ -976,11 +1214,12 @@
       <c r="F9" s="3">
         <v>45303</v>
       </c>
-      <c r="G9" s="4">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>250</v>
       </c>
@@ -1000,11 +1239,12 @@
       <c r="F10" s="3">
         <v>45304</v>
       </c>
-      <c r="G10" s="4">
-        <v>45304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>-25</v>
       </c>
@@ -1024,11 +1264,12 @@
       <c r="F11" s="3">
         <v>45305</v>
       </c>
-      <c r="G11" s="4">
-        <v>45305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>-80</v>
       </c>
@@ -1048,11 +1289,12 @@
       <c r="F12" s="3">
         <v>45306</v>
       </c>
-      <c r="G12" s="4">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>150</v>
       </c>
@@ -1072,11 +1314,12 @@
       <c r="F13" s="3">
         <v>45307</v>
       </c>
-      <c r="G13" s="4">
-        <v>45307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>-80</v>
       </c>
@@ -1096,11 +1339,12 @@
       <c r="F14" s="3">
         <v>45308</v>
       </c>
-      <c r="G14" s="4">
-        <v>45308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>-60</v>
       </c>
@@ -1120,11 +1364,12 @@
       <c r="F15" s="3">
         <v>45309</v>
       </c>
-      <c r="G15" s="4">
-        <v>45309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>-100</v>
       </c>
@@ -1144,11 +1389,12 @@
       <c r="F16" s="3">
         <v>45310</v>
       </c>
-      <c r="G16" s="4">
-        <v>45310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>-50</v>
       </c>
@@ -1168,11 +1414,12 @@
       <c r="F17" s="3">
         <v>45311</v>
       </c>
-      <c r="G17" s="4">
-        <v>45311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>150</v>
       </c>
@@ -1192,11 +1439,12 @@
       <c r="F18" s="3">
         <v>45312</v>
       </c>
-      <c r="G18" s="4">
-        <v>45312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5.5</v>
       </c>
@@ -1216,11 +1464,12 @@
       <c r="F19" s="3">
         <v>45313</v>
       </c>
-      <c r="G19" s="4">
-        <v>45313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>100</v>
       </c>
@@ -1240,11 +1489,12 @@
       <c r="F20" s="3">
         <v>45314</v>
       </c>
-      <c r="G20" s="4">
-        <v>45314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>-100</v>
       </c>
@@ -1264,11 +1514,12 @@
       <c r="F21" s="3">
         <v>45315</v>
       </c>
-      <c r="G21" s="4">
-        <v>45315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>200</v>
       </c>
@@ -1288,11 +1539,12 @@
       <c r="F22" s="3">
         <v>45316</v>
       </c>
-      <c r="G22" s="4">
-        <v>45316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>-15</v>
       </c>
@@ -1312,11 +1564,12 @@
       <c r="F23" s="3">
         <v>45317</v>
       </c>
-      <c r="G23" s="4">
-        <v>45317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>-5.5</v>
       </c>
@@ -1336,11 +1589,12 @@
       <c r="F24" s="3">
         <v>45318</v>
       </c>
-      <c r="G24" s="4">
-        <v>45318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>4500</v>
       </c>
@@ -1360,11 +1614,12 @@
       <c r="F25" s="3">
         <v>45319</v>
       </c>
-      <c r="G25" s="4">
-        <v>45319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>-2000</v>
       </c>
@@ -1384,11 +1639,12 @@
       <c r="F26" s="3">
         <v>45320</v>
       </c>
-      <c r="G26" s="4">
-        <v>45320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>-150</v>
       </c>
@@ -1408,11 +1664,12 @@
       <c r="F27" s="3">
         <v>45321</v>
       </c>
-      <c r="G27" s="4">
-        <v>45321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>500</v>
       </c>
@@ -1432,11 +1689,12 @@
       <c r="F28" s="3">
         <v>45322</v>
       </c>
-      <c r="G28" s="4">
-        <v>45322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>-300</v>
       </c>
@@ -1456,11 +1714,12 @@
       <c r="F29" s="3">
         <v>45323</v>
       </c>
-      <c r="G29" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>-500</v>
       </c>
@@ -1480,11 +1739,12 @@
       <c r="F30" s="3">
         <v>45324</v>
       </c>
-      <c r="G30" s="4">
-        <v>45324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>-200</v>
       </c>
@@ -1504,11 +1764,12 @@
       <c r="F31" s="3">
         <v>45325</v>
       </c>
-      <c r="G31" s="4">
-        <v>45325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>175</v>
       </c>
@@ -1528,11 +1789,12 @@
       <c r="F32" s="3">
         <v>45326</v>
       </c>
-      <c r="G32" s="4">
-        <v>45326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>-175</v>
       </c>
@@ -1552,11 +1814,12 @@
       <c r="F33" s="3">
         <v>45327</v>
       </c>
-      <c r="G33" s="4">
-        <v>45327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>-100</v>
       </c>
@@ -1576,11 +1839,12 @@
       <c r="F34" s="3">
         <v>45328</v>
       </c>
-      <c r="G34" s="4">
-        <v>45328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>-80</v>
       </c>
@@ -1600,11 +1864,12 @@
       <c r="F35" s="3">
         <v>45329</v>
       </c>
-      <c r="G35" s="4">
-        <v>45329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>150</v>
       </c>
@@ -1624,11 +1889,12 @@
       <c r="F36" s="3">
         <v>45330</v>
       </c>
-      <c r="G36" s="4">
-        <v>45330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>100</v>
       </c>
@@ -1648,11 +1914,12 @@
       <c r="F37" s="3">
         <v>45331</v>
       </c>
-      <c r="G37" s="4">
-        <v>45331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>-200</v>
       </c>
@@ -1672,11 +1939,12 @@
       <c r="F38" s="3">
         <v>45332</v>
       </c>
-      <c r="G38" s="4">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1000</v>
       </c>
@@ -1696,11 +1964,12 @@
       <c r="F39" s="3">
         <v>45333</v>
       </c>
-      <c r="G39" s="4">
-        <v>45333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>-250</v>
       </c>
@@ -1720,11 +1989,12 @@
       <c r="F40" s="3">
         <v>45334</v>
       </c>
-      <c r="G40" s="4">
-        <v>45334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>-100</v>
       </c>
@@ -1744,11 +2014,12 @@
       <c r="F41" s="3">
         <v>45335</v>
       </c>
-      <c r="G41" s="4">
-        <v>45335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>-50</v>
       </c>
@@ -1768,11 +2039,12 @@
       <c r="F42" s="3">
         <v>45336</v>
       </c>
-      <c r="G42" s="4">
-        <v>45336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>15</v>
       </c>
@@ -1792,11 +2064,12 @@
       <c r="F43" s="3">
         <v>45337</v>
       </c>
-      <c r="G43" s="4">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>-150</v>
       </c>
@@ -1816,11 +2089,12 @@
       <c r="F44" s="3">
         <v>45338</v>
       </c>
-      <c r="G44" s="4">
-        <v>45338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>100</v>
       </c>
@@ -1840,11 +2114,12 @@
       <c r="F45" s="3">
         <v>45339</v>
       </c>
-      <c r="G45" s="4">
-        <v>45339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>-25</v>
       </c>
@@ -1864,11 +2139,12 @@
       <c r="F46" s="3">
         <v>45340</v>
       </c>
-      <c r="G46" s="4">
-        <v>45340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>-135.5</v>
       </c>
@@ -1888,11 +2164,12 @@
       <c r="F47" s="3">
         <v>45341</v>
       </c>
-      <c r="G47" s="4">
-        <v>45341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>-82.5</v>
       </c>
@@ -1912,11 +2189,12 @@
       <c r="F48" s="3">
         <v>45342</v>
       </c>
-      <c r="G48" s="4">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>-200</v>
       </c>
@@ -1936,11 +2214,12 @@
       <c r="F49" s="3">
         <v>45343</v>
       </c>
-      <c r="G49" s="4">
-        <v>45343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>150</v>
       </c>
@@ -1960,11 +2239,12 @@
       <c r="F50" s="3">
         <v>45344</v>
       </c>
-      <c r="G50" s="4">
-        <v>45344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>-24.49</v>
       </c>
@@ -1984,11 +2264,12 @@
       <c r="F51" s="3">
         <v>45345</v>
       </c>
-      <c r="G51" s="4">
-        <v>45345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>4500</v>
       </c>
@@ -2008,11 +2289,12 @@
       <c r="F52" s="3">
         <v>45346</v>
       </c>
-      <c r="G52" s="4">
-        <v>45346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>-2000</v>
       </c>
@@ -2032,11 +2314,12 @@
       <c r="F53" s="3">
         <v>45347</v>
       </c>
-      <c r="G53" s="4">
-        <v>45347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>-200</v>
       </c>
@@ -2056,11 +2339,12 @@
       <c r="F54" s="3">
         <v>45348</v>
       </c>
-      <c r="G54" s="4">
-        <v>45348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>-469.9</v>
       </c>
@@ -2080,11 +2364,12 @@
       <c r="F55" s="3">
         <v>45349</v>
       </c>
-      <c r="G55" s="4">
-        <v>45349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>-9.5</v>
       </c>
@@ -2104,11 +2389,12 @@
       <c r="F56" s="3">
         <v>45350</v>
       </c>
-      <c r="G56" s="4">
-        <v>45350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>-23</v>
       </c>
@@ -2128,11 +2414,12 @@
       <c r="F57" s="3">
         <v>45351</v>
       </c>
-      <c r="G57" s="4">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>-150</v>
       </c>
@@ -2152,11 +2439,12 @@
       <c r="F58" s="3">
         <v>45352</v>
       </c>
-      <c r="G58" s="4">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>-300</v>
       </c>
@@ -2176,11 +2464,12 @@
       <c r="F59" s="3">
         <v>45353</v>
       </c>
-      <c r="G59" s="4">
-        <v>45353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -2200,11 +2489,12 @@
       <c r="F60" s="3">
         <v>45354</v>
       </c>
-      <c r="G60" s="4">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>-79.5</v>
       </c>
@@ -2224,11 +2514,12 @@
       <c r="F61" s="3">
         <v>45355</v>
       </c>
-      <c r="G61" s="4">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>-200</v>
       </c>
@@ -2248,11 +2539,12 @@
       <c r="F62" s="3">
         <v>45356</v>
       </c>
-      <c r="G62" s="4">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>-23.5</v>
       </c>
@@ -2272,11 +2564,12 @@
       <c r="F63" s="3">
         <v>45357</v>
       </c>
-      <c r="G63" s="4">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>-82.5</v>
       </c>
@@ -2296,11 +2589,12 @@
       <c r="F64" s="3">
         <v>45358</v>
       </c>
-      <c r="G64" s="4">
-        <v>45358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>150</v>
       </c>
@@ -2320,11 +2614,12 @@
       <c r="F65" s="3">
         <v>45359</v>
       </c>
-      <c r="G65" s="4">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>-99.97</v>
       </c>
@@ -2344,11 +2639,12 @@
       <c r="F66" s="3">
         <v>45360</v>
       </c>
-      <c r="G66" s="4">
-        <v>45360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4500</v>
       </c>
@@ -2368,11 +2664,12 @@
       <c r="F67" s="3">
         <v>45361</v>
       </c>
-      <c r="G67" s="4">
-        <v>45361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>-2000</v>
       </c>
@@ -2392,11 +2689,12 @@
       <c r="F68" s="3">
         <v>45362</v>
       </c>
-      <c r="G68" s="4">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>-149</v>
       </c>
@@ -2416,11 +2714,12 @@
       <c r="F69" s="3">
         <v>45363</v>
       </c>
-      <c r="G69" s="4">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>104.5</v>
       </c>
@@ -2440,11 +2739,12 @@
       <c r="F70" s="3">
         <v>45364</v>
       </c>
-      <c r="G70" s="4">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>-104.5</v>
       </c>
@@ -2464,11 +2764,12 @@
       <c r="F71" s="3">
         <v>45365</v>
       </c>
-      <c r="G71" s="4">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>-49</v>
       </c>
@@ -2488,11 +2789,12 @@
       <c r="F72" s="3">
         <v>45366</v>
       </c>
-      <c r="G72" s="4">
-        <v>45366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>-9.99</v>
       </c>
@@ -2512,11 +2814,12 @@
       <c r="F73" s="3">
         <v>45367</v>
       </c>
-      <c r="G73" s="4">
-        <v>45367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>-100</v>
       </c>
@@ -2536,11 +2839,12 @@
       <c r="F74" s="3">
         <v>45368</v>
       </c>
-      <c r="G74" s="4">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>-57.9</v>
       </c>
@@ -2560,11 +2864,12 @@
       <c r="F75" s="3">
         <v>45369</v>
       </c>
-      <c r="G75" s="4">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>-159.9</v>
       </c>
@@ -2584,11 +2889,12 @@
       <c r="F76" s="3">
         <v>45370</v>
       </c>
-      <c r="G76" s="4">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>-1000</v>
       </c>
@@ -2608,11 +2914,12 @@
       <c r="F77" s="3">
         <v>45371</v>
       </c>
-      <c r="G77" s="4">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>50</v>
       </c>
@@ -2632,11 +2939,12 @@
       <c r="F78" s="3">
         <v>45372</v>
       </c>
-      <c r="G78" s="4">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>-69.900000000000006</v>
       </c>
@@ -2656,11 +2964,12 @@
       <c r="F79" s="3">
         <v>45373</v>
       </c>
-      <c r="G79" s="4">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>-32.5</v>
       </c>
@@ -2680,11 +2989,12 @@
       <c r="F80" s="3">
         <v>45374</v>
       </c>
-      <c r="G80" s="4">
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>-139</v>
       </c>
@@ -2704,11 +3014,12 @@
       <c r="F81" s="3">
         <v>45375</v>
       </c>
-      <c r="G81" s="4">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>-250</v>
       </c>
@@ -2728,11 +3039,12 @@
       <c r="F82" s="3">
         <v>45376</v>
       </c>
-      <c r="G82" s="4">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>-80</v>
       </c>
@@ -2752,11 +3064,12 @@
       <c r="F83" s="3">
         <v>45377</v>
       </c>
-      <c r="G83" s="4">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>4500</v>
       </c>
@@ -2776,11 +3089,12 @@
       <c r="F84" s="3">
         <v>45378</v>
       </c>
-      <c r="G84" s="4">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>-2000</v>
       </c>
@@ -2800,11 +3114,12 @@
       <c r="F85" s="3">
         <v>45379</v>
       </c>
-      <c r="G85" s="4">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>-250</v>
       </c>
@@ -2824,11 +3139,12 @@
       <c r="F86" s="3">
         <v>45380</v>
       </c>
-      <c r="G86" s="4">
-        <v>45380</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>91.39</v>
       </c>
@@ -2848,11 +3164,12 @@
       <c r="F87" s="3">
         <v>45381</v>
       </c>
-      <c r="G87" s="4">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>-91.39</v>
       </c>
@@ -2872,11 +3189,12 @@
       <c r="F88" s="3">
         <v>45382</v>
       </c>
-      <c r="G88" s="4">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>-250</v>
       </c>
@@ -2896,11 +3214,12 @@
       <c r="F89" s="3">
         <v>45383</v>
       </c>
-      <c r="G89" s="4">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>-250</v>
       </c>
@@ -2920,11 +3239,12 @@
       <c r="F90" s="3">
         <v>45384</v>
       </c>
-      <c r="G90" s="4">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>-50</v>
       </c>
@@ -2944,11 +3264,12 @@
       <c r="F91" s="3">
         <v>45385</v>
       </c>
-      <c r="G91" s="4">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>-80</v>
       </c>
@@ -2968,11 +3289,12 @@
       <c r="F92" s="3">
         <v>45386</v>
       </c>
-      <c r="G92" s="4">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>-250</v>
       </c>
@@ -2992,11 +3314,12 @@
       <c r="F93" s="3">
         <v>45387</v>
       </c>
-      <c r="G93" s="4">
-        <v>45387</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>-80</v>
       </c>
@@ -3016,11 +3339,12 @@
       <c r="F94" s="3">
         <v>45388</v>
       </c>
-      <c r="G94" s="4">
-        <v>45388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>4500</v>
       </c>
@@ -3040,11 +3364,12 @@
       <c r="F95" s="3">
         <v>45389</v>
       </c>
-      <c r="G95" s="4">
-        <v>45389</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>-2000</v>
       </c>
@@ -3064,11 +3389,12 @@
       <c r="F96" s="3">
         <v>45390</v>
       </c>
-      <c r="G96" s="4">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>-250</v>
       </c>
@@ -3088,11 +3414,12 @@
       <c r="F97" s="3">
         <v>45391</v>
       </c>
-      <c r="G97" s="4">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>1000</v>
       </c>
@@ -3112,11 +3439,12 @@
       <c r="F98" s="3">
         <v>45392</v>
       </c>
-      <c r="G98" s="4">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>-1000</v>
       </c>
@@ -3136,11 +3464,12 @@
       <c r="F99" s="3">
         <v>45393</v>
       </c>
-      <c r="G99" s="4">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>-100</v>
       </c>
@@ -3160,11 +3489,12 @@
       <c r="F100" s="3">
         <v>45394</v>
       </c>
-      <c r="G100" s="4">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>-250</v>
       </c>
@@ -3184,11 +3514,12 @@
       <c r="F101" s="3">
         <v>45395</v>
       </c>
-      <c r="G101" s="4">
-        <v>45395</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>-250</v>
       </c>
@@ -3208,11 +3539,12 @@
       <c r="F102" s="3">
         <v>45396</v>
       </c>
-      <c r="G102" s="4">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>-300</v>
       </c>
@@ -3232,11 +3564,12 @@
       <c r="F103" s="3">
         <v>45397</v>
       </c>
-      <c r="G103" s="4">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>-50</v>
       </c>
@@ -3256,11 +3589,12 @@
       <c r="F104" s="3">
         <v>45398</v>
       </c>
-      <c r="G104" s="4">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>400</v>
       </c>
@@ -3280,11 +3614,12 @@
       <c r="F105" s="3">
         <v>45399</v>
       </c>
-      <c r="G105" s="4">
-        <v>45399</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>-200</v>
       </c>
@@ -3304,11 +3639,12 @@
       <c r="F106" s="3">
         <v>45400</v>
       </c>
-      <c r="G106" s="4">
-        <v>45400</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>-30</v>
       </c>
@@ -3328,11 +3664,12 @@
       <c r="F107" s="3">
         <v>45401</v>
       </c>
-      <c r="G107" s="4">
-        <v>45401</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>-100</v>
       </c>
@@ -3352,11 +3689,12 @@
       <c r="F108" s="3">
         <v>45402</v>
       </c>
-      <c r="G108" s="4">
-        <v>45402</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>4500</v>
       </c>
@@ -3376,11 +3714,12 @@
       <c r="F109" s="3">
         <v>45403</v>
       </c>
-      <c r="G109" s="4">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>-2000</v>
       </c>
@@ -3400,11 +3739,12 @@
       <c r="F110" s="3">
         <v>45404</v>
       </c>
-      <c r="G110" s="4">
-        <v>45404</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>-40</v>
       </c>
@@ -3424,11 +3764,12 @@
       <c r="F111" s="3">
         <v>45405</v>
       </c>
-      <c r="G111" s="4">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>1300</v>
       </c>
@@ -3448,11 +3789,12 @@
       <c r="F112" s="3">
         <v>45406</v>
       </c>
-      <c r="G112" s="4">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>-1300</v>
       </c>
@@ -3472,11 +3814,12 @@
       <c r="F113" s="3">
         <v>45407</v>
       </c>
-      <c r="G113" s="4">
-        <v>45407</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>-300</v>
       </c>
@@ -3496,11 +3839,12 @@
       <c r="F114" s="3">
         <v>45408</v>
       </c>
-      <c r="G114" s="4">
-        <v>45408</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>800</v>
       </c>
@@ -3520,11 +3864,12 @@
       <c r="F115" s="3">
         <v>45409</v>
       </c>
-      <c r="G115" s="4">
-        <v>45409</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>-600</v>
       </c>
@@ -3544,11 +3889,12 @@
       <c r="F116" s="3">
         <v>45410</v>
       </c>
-      <c r="G116" s="4">
-        <v>45410</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>120</v>
       </c>
@@ -3568,11 +3914,12 @@
       <c r="F117" s="3">
         <v>45411</v>
       </c>
-      <c r="G117" s="4">
-        <v>45411</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>-90</v>
       </c>
@@ -3592,11 +3939,12 @@
       <c r="F118" s="3">
         <v>45412</v>
       </c>
-      <c r="G118" s="4">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>-50</v>
       </c>
@@ -3616,11 +3964,12 @@
       <c r="F119" s="3">
         <v>45413</v>
       </c>
-      <c r="G119" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>250</v>
       </c>
@@ -3640,11 +3989,12 @@
       <c r="F120" s="3">
         <v>45414</v>
       </c>
-      <c r="G120" s="4">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>500</v>
       </c>
@@ -3664,11 +4014,12 @@
       <c r="F121" s="3">
         <v>45415</v>
       </c>
-      <c r="G121" s="4">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>-45</v>
       </c>
@@ -3688,11 +4039,12 @@
       <c r="F122" s="3">
         <v>45416</v>
       </c>
-      <c r="G122" s="4">
-        <v>45416</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>-600</v>
       </c>
@@ -3712,11 +4064,12 @@
       <c r="F123" s="3">
         <v>45417</v>
       </c>
-      <c r="G123" s="4">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>-1020</v>
       </c>
@@ -3736,11 +4089,12 @@
       <c r="F124" s="3">
         <v>45418</v>
       </c>
-      <c r="G124" s="4">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>-200</v>
       </c>
@@ -3760,11 +4114,12 @@
       <c r="F125" s="3">
         <v>45419</v>
       </c>
-      <c r="G125" s="4">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>-70</v>
       </c>
@@ -3784,11 +4139,12 @@
       <c r="F126" s="3">
         <v>45420</v>
       </c>
-      <c r="G126" s="4">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>4500</v>
       </c>
@@ -3808,11 +4164,12 @@
       <c r="F127" s="3">
         <v>45421</v>
       </c>
-      <c r="G127" s="4">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>-2000</v>
       </c>
@@ -3832,11 +4189,12 @@
       <c r="F128" s="3">
         <v>45422</v>
       </c>
-      <c r="G128" s="4">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>-100</v>
       </c>
@@ -3856,11 +4214,12 @@
       <c r="F129" s="3">
         <v>45423</v>
       </c>
-      <c r="G129" s="4">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>135</v>
       </c>
@@ -3880,11 +4239,12 @@
       <c r="F130" s="3">
         <v>45424</v>
       </c>
-      <c r="G130" s="4">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>-135</v>
       </c>
@@ -3904,11 +4264,12 @@
       <c r="F131" s="3">
         <v>45425</v>
       </c>
-      <c r="G131" s="4">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>-400</v>
       </c>
@@ -3928,11 +4289,12 @@
       <c r="F132" s="3">
         <v>45426</v>
       </c>
-      <c r="G132" s="4">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>-32</v>
       </c>
@@ -3952,11 +4314,12 @@
       <c r="F133" s="3">
         <v>45427</v>
       </c>
-      <c r="G133" s="4">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>200</v>
       </c>
@@ -3976,11 +4339,12 @@
       <c r="F134" s="3">
         <v>45428</v>
       </c>
-      <c r="G134" s="4">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>-150</v>
       </c>
@@ -4000,11 +4364,12 @@
       <c r="F135" s="3">
         <v>45429</v>
       </c>
-      <c r="G135" s="4">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>-47.5</v>
       </c>
@@ -4024,11 +4389,12 @@
       <c r="F136" s="3">
         <v>45430</v>
       </c>
-      <c r="G136" s="4">
-        <v>45430</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>-90</v>
       </c>
@@ -4048,11 +4414,12 @@
       <c r="F137" s="3">
         <v>45431</v>
       </c>
-      <c r="G137" s="4">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>-300</v>
       </c>
@@ -4072,11 +4439,12 @@
       <c r="F138" s="3">
         <v>45432</v>
       </c>
-      <c r="G138" s="4">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>500</v>
       </c>
@@ -4096,11 +4464,12 @@
       <c r="F139" s="3">
         <v>45433</v>
       </c>
-      <c r="G139" s="4">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>200</v>
       </c>
@@ -4120,11 +4489,12 @@
       <c r="F140" s="3">
         <v>45434</v>
       </c>
-      <c r="G140" s="4">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>-150</v>
       </c>
@@ -4144,11 +4514,12 @@
       <c r="F141" s="3">
         <v>45435</v>
       </c>
-      <c r="G141" s="4">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>-20</v>
       </c>
@@ -4168,11 +4539,12 @@
       <c r="F142" s="3">
         <v>45436</v>
       </c>
-      <c r="G142" s="4">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>-40</v>
       </c>
@@ -4192,11 +4564,12 @@
       <c r="F143" s="3">
         <v>45437</v>
       </c>
-      <c r="G143" s="4">
-        <v>45437</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>-500</v>
       </c>
@@ -4216,11 +4589,12 @@
       <c r="F144" s="3">
         <v>45438</v>
       </c>
-      <c r="G144" s="4">
-        <v>45438</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>4500</v>
       </c>
@@ -4240,11 +4614,12 @@
       <c r="F145" s="3">
         <v>45439</v>
       </c>
-      <c r="G145" s="4">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>-20</v>
       </c>
@@ -4264,11 +4639,12 @@
       <c r="F146" s="3">
         <v>45440</v>
       </c>
-      <c r="G146" s="4">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>-2000</v>
       </c>
@@ -4288,11 +4664,12 @@
       <c r="F147" s="3">
         <v>45441</v>
       </c>
-      <c r="G147" s="4">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>102</v>
       </c>
@@ -4312,11 +4689,12 @@
       <c r="F148" s="3">
         <v>45442</v>
       </c>
-      <c r="G148" s="4">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>-102</v>
       </c>
@@ -4336,11 +4714,12 @@
       <c r="F149" s="3">
         <v>45443</v>
       </c>
-      <c r="G149" s="4">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>-18.5</v>
       </c>
@@ -4360,11 +4739,12 @@
       <c r="F150" s="3">
         <v>45444</v>
       </c>
-      <c r="G150" s="4">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>-150</v>
       </c>
@@ -4384,11 +4764,12 @@
       <c r="F151" s="3">
         <v>45445</v>
       </c>
-      <c r="G151" s="4">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>-40</v>
       </c>
@@ -4408,11 +4789,12 @@
       <c r="F152" s="3">
         <v>45446</v>
       </c>
-      <c r="G152" s="4">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>-600</v>
       </c>
@@ -4432,11 +4814,12 @@
       <c r="F153" s="3">
         <v>45447</v>
       </c>
-      <c r="G153" s="4">
-        <v>45447</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>4500</v>
       </c>
@@ -4456,11 +4839,12 @@
       <c r="F154" s="3">
         <v>45448</v>
       </c>
-      <c r="G154" s="4">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>-40</v>
       </c>
@@ -4480,11 +4864,12 @@
       <c r="F155" s="3">
         <v>45449</v>
       </c>
-      <c r="G155" s="4">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>-2000</v>
       </c>
@@ -4504,11 +4889,12 @@
       <c r="F156" s="3">
         <v>45450</v>
       </c>
-      <c r="G156" s="4">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>20</v>
       </c>
@@ -4528,11 +4914,12 @@
       <c r="F157" s="3">
         <v>45451</v>
       </c>
-      <c r="G157" s="4">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>-20</v>
       </c>
@@ -4552,11 +4939,12 @@
       <c r="F158" s="3">
         <v>45452</v>
       </c>
-      <c r="G158" s="4">
-        <v>45452</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>4500</v>
       </c>
@@ -4576,11 +4964,12 @@
       <c r="F159" s="3">
         <v>45453</v>
       </c>
-      <c r="G159" s="4">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>-2000</v>
       </c>
@@ -4600,11 +4989,12 @@
       <c r="F160" s="3">
         <v>45454</v>
       </c>
-      <c r="G160" s="4">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>-82</v>
       </c>
@@ -4624,11 +5014,12 @@
       <c r="F161" s="3">
         <v>45455</v>
       </c>
-      <c r="G161" s="4">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>-200</v>
       </c>
@@ -4648,11 +5039,12 @@
       <c r="F162" s="3">
         <v>45456</v>
       </c>
-      <c r="G162" s="4">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>-12</v>
       </c>
@@ -4672,11 +5064,12 @@
       <c r="F163" s="3">
         <v>45457</v>
       </c>
-      <c r="G163" s="4">
-        <v>45457</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G163" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>-90</v>
       </c>
@@ -4696,11 +5089,12 @@
       <c r="F164" s="3">
         <v>45458</v>
       </c>
-      <c r="G164" s="4">
-        <v>45458</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G164" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>40</v>
       </c>
@@ -4720,11 +5114,12 @@
       <c r="F165" s="3">
         <v>45459</v>
       </c>
-      <c r="G165" s="4">
-        <v>45459</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G165" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>-40</v>
       </c>
@@ -4744,11 +5139,12 @@
       <c r="F166" s="3">
         <v>45460</v>
       </c>
-      <c r="G166" s="4">
-        <v>45460</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G166" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>-28</v>
       </c>
@@ -4768,11 +5164,12 @@
       <c r="F167" s="3">
         <v>45461</v>
       </c>
-      <c r="G167" s="4">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G167" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>-63</v>
       </c>
@@ -4792,11 +5189,12 @@
       <c r="F168" s="3">
         <v>45462</v>
       </c>
-      <c r="G168" s="4">
-        <v>45462</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G168" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>-15</v>
       </c>
@@ -4816,11 +5214,12 @@
       <c r="F169" s="3">
         <v>45463</v>
       </c>
-      <c r="G169" s="4">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G169" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>-44</v>
       </c>
@@ -4840,11 +5239,12 @@
       <c r="F170" s="3">
         <v>45464</v>
       </c>
-      <c r="G170" s="4">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G170" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>-107</v>
       </c>
@@ -4864,11 +5264,12 @@
       <c r="F171" s="3">
         <v>45465</v>
       </c>
-      <c r="G171" s="4">
-        <v>45465</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G171" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>-169</v>
       </c>
@@ -4888,11 +5289,12 @@
       <c r="F172" s="3">
         <v>45466</v>
       </c>
-      <c r="G172" s="4">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G172" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>-51</v>
       </c>
@@ -4912,11 +5314,12 @@
       <c r="F173" s="3">
         <v>45467</v>
       </c>
-      <c r="G173" s="4">
-        <v>45467</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G173" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>-80</v>
       </c>
@@ -4936,11 +5339,12 @@
       <c r="F174" s="3">
         <v>45468</v>
       </c>
-      <c r="G174" s="4">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>-70</v>
       </c>
@@ -4960,11 +5364,12 @@
       <c r="F175" s="3">
         <v>45469</v>
       </c>
-      <c r="G175" s="4">
-        <v>45469</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G175" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>-35</v>
       </c>
@@ -4984,11 +5389,12 @@
       <c r="F176" s="3">
         <v>45470</v>
       </c>
-      <c r="G176" s="4">
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>-11</v>
       </c>
@@ -5008,11 +5414,12 @@
       <c r="F177" s="3">
         <v>45471</v>
       </c>
-      <c r="G177" s="4">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G177" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>-80</v>
       </c>
@@ -5032,11 +5439,12 @@
       <c r="F178" s="3">
         <v>45472</v>
       </c>
-      <c r="G178" s="4">
-        <v>45472</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G178" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>-58</v>
       </c>
@@ -5056,11 +5464,12 @@
       <c r="F179" s="3">
         <v>45473</v>
       </c>
-      <c r="G179" s="4">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>-52</v>
       </c>
@@ -5080,11 +5489,12 @@
       <c r="F180" s="3">
         <v>45474</v>
       </c>
-      <c r="G180" s="4">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G180" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>-44</v>
       </c>
@@ -5104,11 +5514,12 @@
       <c r="F181" s="3">
         <v>45475</v>
       </c>
-      <c r="G181" s="4">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G181" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>-48</v>
       </c>
@@ -5128,11 +5539,12 @@
       <c r="F182" s="3">
         <v>45476</v>
       </c>
-      <c r="G182" s="4">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>-65</v>
       </c>
@@ -5152,11 +5564,12 @@
       <c r="F183" s="3">
         <v>45477</v>
       </c>
-      <c r="G183" s="4">
-        <v>45477</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G183" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>400</v>
       </c>
@@ -5176,11 +5589,12 @@
       <c r="F184" s="3">
         <v>45478</v>
       </c>
-      <c r="G184" s="4">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G184" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>-96</v>
       </c>
@@ -5200,11 +5614,12 @@
       <c r="F185" s="3">
         <v>45479</v>
       </c>
-      <c r="G185" s="4">
-        <v>45479</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G185" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>-50</v>
       </c>
@@ -5224,11 +5639,12 @@
       <c r="F186" s="3">
         <v>45480</v>
       </c>
-      <c r="G186" s="4">
-        <v>45480</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G186" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>-50</v>
       </c>
@@ -5248,11 +5664,12 @@
       <c r="F187" s="3">
         <v>45481</v>
       </c>
-      <c r="G187" s="4">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G187" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>-5</v>
       </c>
@@ -5272,11 +5689,12 @@
       <c r="F188" s="3">
         <v>45482</v>
       </c>
-      <c r="G188" s="4">
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>-100</v>
       </c>
@@ -5296,11 +5714,12 @@
       <c r="F189" s="3">
         <v>45483</v>
       </c>
-      <c r="G189" s="4">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>-60</v>
       </c>
@@ -5320,11 +5739,12 @@
       <c r="F190" s="3">
         <v>45484</v>
       </c>
-      <c r="G190" s="4">
-        <v>45484</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G190" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>-5</v>
       </c>
@@ -5344,11 +5764,12 @@
       <c r="F191" s="3">
         <v>45485</v>
       </c>
-      <c r="G191" s="4">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G191" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>-100</v>
       </c>
@@ -5368,11 +5789,12 @@
       <c r="F192" s="3">
         <v>45486</v>
       </c>
-      <c r="G192" s="4">
-        <v>45486</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G192" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>-60</v>
       </c>
@@ -5392,11 +5814,12 @@
       <c r="F193" s="3">
         <v>45487</v>
       </c>
-      <c r="G193" s="4">
-        <v>45487</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>-150</v>
       </c>
@@ -5416,11 +5839,12 @@
       <c r="F194" s="3">
         <v>45488</v>
       </c>
-      <c r="G194" s="4">
-        <v>45488</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>-150</v>
       </c>
@@ -5440,11 +5864,12 @@
       <c r="F195" s="3">
         <v>45489</v>
       </c>
-      <c r="G195" s="4">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>-100</v>
       </c>
@@ -5464,11 +5889,12 @@
       <c r="F196" s="3">
         <v>45490</v>
       </c>
-      <c r="G196" s="4">
-        <v>45490</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>-100</v>
       </c>
@@ -5488,11 +5914,12 @@
       <c r="F197" s="3">
         <v>45491</v>
       </c>
-      <c r="G197" s="4">
-        <v>45491</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>4500</v>
       </c>
@@ -5512,11 +5939,12 @@
       <c r="F198" s="3">
         <v>45492</v>
       </c>
-      <c r="G198" s="4">
-        <v>45492</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>-2000</v>
       </c>
@@ -5536,11 +5964,12 @@
       <c r="F199" s="3">
         <v>45493</v>
       </c>
-      <c r="G199" s="4">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G199" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>-50</v>
       </c>
@@ -5560,11 +5989,12 @@
       <c r="F200" s="3">
         <v>45494</v>
       </c>
-      <c r="G200" s="4">
-        <v>45494</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G200" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>-100</v>
       </c>
@@ -5584,11 +6014,12 @@
       <c r="F201" s="3">
         <v>45495</v>
       </c>
-      <c r="G201" s="4">
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G201" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>-100</v>
       </c>
@@ -5608,11 +6039,12 @@
       <c r="F202" s="3">
         <v>45496</v>
       </c>
-      <c r="G202" s="4">
-        <v>45496</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G202" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>500</v>
       </c>
@@ -5632,11 +6064,12 @@
       <c r="F203" s="3">
         <v>45497</v>
       </c>
-      <c r="G203" s="4">
-        <v>45497</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G203" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>-100</v>
       </c>
@@ -5656,11 +6089,12 @@
       <c r="F204" s="3">
         <v>45498</v>
       </c>
-      <c r="G204" s="4">
-        <v>45498</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G204" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>1500</v>
       </c>
@@ -5680,11 +6114,12 @@
       <c r="F205" s="3">
         <v>45499</v>
       </c>
-      <c r="G205" s="4">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G205" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>-500</v>
       </c>
@@ -5704,11 +6139,12 @@
       <c r="F206" s="3">
         <v>45500</v>
       </c>
-      <c r="G206" s="4">
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G206" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>-300</v>
       </c>
@@ -5728,15 +6164,35 @@
       <c r="F207" s="3">
         <v>45501</v>
       </c>
-      <c r="G207" s="4">
-        <v>45501</v>
+      <c r="G207" s="20">
+        <f>MONTH(operations[[#This Row],[Date]])</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{867683A1-3E61-4991-AE88-659C1491DAE2}">
+          <x14:formula1>
+            <xm:f>Dictionary!$G$1:$I$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{674888B9-1F7C-463E-8298-CCD7F825A0CA}">
+          <x14:formula1>
+            <xm:f>CHOOSE(MATCH(B2,Dictionary!$G$1:$I$1,0),_xlfn._TRO_TRAILING(Dictionary!$G$2:$G$8),_xlfn._TRO_TRAILING(Dictionary!$H$2:$H$8),_xlfn._TRO_TRAILING(Dictionary!$I$2:$I$8))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5745,23 +6201,23 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5769,13 +6225,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -5790,242 +6246,242 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>100</v>
       </c>
-      <c r="D2" s="5">
-        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4">
+        <f ca="1">SUMIFS(operations[Amount],operations[Bank],Table6[[#This Row],[Bank]],operations[Product],Table6[[#This Row],[Product]],operations[Month],$B$11)</f>
+        <v>150</v>
+      </c>
+      <c r="E2" s="4">
         <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>10.5</v>
       </c>
-      <c r="D3" s="5">
-        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="4">
+        <f ca="1">SUMIFS(operations[Amount],operations[Bank],Table6[[#This Row],[Bank]],operations[Product],Table6[[#This Row],[Product]],operations[Month],$B$11)</f>
+        <v>255.5</v>
+      </c>
+      <c r="E3" s="4">
         <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
-        <v>10.5</v>
+        <v>-245</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>600</v>
       </c>
-      <c r="D4" s="5">
-        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
-        <v>-1500</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="4">
+        <f ca="1">SUMIFS(operations[Amount],operations[Bank],Table6[[#This Row],[Bank]],operations[Product],Table6[[#This Row],[Product]],operations[Month],$B$11)</f>
+        <v>3944.5</v>
+      </c>
+      <c r="E4" s="4">
         <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
-        <v>2100</v>
+        <v>-3344.5</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="4"/>
       <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
-        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <f ca="1">SUMIFS(operations[Amount],operations[Bank],Table6[[#This Row],[Bank]],operations[Product],Table6[[#This Row],[Product]],operations[Month],$B$11)</f>
+        <v>-175</v>
+      </c>
+      <c r="E5" s="4">
         <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2000</v>
       </c>
-      <c r="D6" s="5">
-        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4">
+        <f ca="1">SUMIFS(operations[Amount],operations[Bank],Table6[[#This Row],[Bank]],operations[Product],Table6[[#This Row],[Product]],operations[Month],$B$11)</f>
+        <v>-400</v>
+      </c>
+      <c r="E6" s="4">
         <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>200</v>
       </c>
-      <c r="D7" s="5">
-        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="4">
+        <f ca="1">SUMIFS(operations[Amount],operations[Bank],Table6[[#This Row],[Bank]],operations[Product],Table6[[#This Row],[Product]],operations[Month],$B$11)</f>
+        <v>-50</v>
+      </c>
+      <c r="E7" s="4">
         <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="J7" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>30</v>
       </c>
-      <c r="D8" s="5">
-        <f ca="1">SUMIFS(operations[Amount], operations[Bank], Table6[[#This Row],[Bank]], operations[Product], Table6[[#This Row],[Product]], operations[Month], $B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="4">
+        <f ca="1">SUMIFS(operations[Amount],operations[Bank],Table6[[#This Row],[Bank]],operations[Product],Table6[[#This Row],[Product]],operations[Month],$B$11)</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="4">
         <f ca="1">Table6[[#This Row],[Opening balance]]-Table6[[#This Row],[Operations]]</f>
-        <v>30</v>
+        <v>-120</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>SUBTOTAL(9,Table7[Total])</f>
         <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>SUBTOTAL(9,Table6[Opening balance])</f>
         <v>2940.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(9,Table6[Operations])</f>
-        <v>-1500</v>
-      </c>
-      <c r="E9" s="5">
+        <v>3875</v>
+      </c>
+      <c r="E9" s="4">
         <f ca="1">SUBTOTAL(9,Table6[Closing balance])</f>
-        <v>4440.5</v>
+        <v>-934.5</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="str" cm="1">
+      <c r="B11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="J11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f>SUBTOTAL(9,Table8[Total])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6033,29 +6489,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>SUBTOTAL(9,Table9[Total])</f>
         <v>0</v>
       </c>
@@ -6073,82 +6529,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F3DB42-AEAF-4104-BB3B-345434C975C5}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -6156,7 +6709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -6164,7 +6717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -6172,7 +6725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -6180,7 +6733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -6188,7 +6741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6196,7 +6749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -6204,7 +6757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -6212,7 +6765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -6230,8 +6783,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-23\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760E8391-AAFC-4093-8ECF-61B7477D9C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49E8BF5-966A-4D8C-AB69-77125C6FB69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
@@ -40,8 +40,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,8 +48,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -62,11 +61,35 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -193,7 +216,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -390,12 +413,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -410,8 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -421,46 +442,598 @@
   </cellStyles>
   <dxfs count="151">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -482,468 +1055,6 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -961,96 +1072,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1064,6 +1085,74 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <fb t="e">#NAME?</fb>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <fb t="e">#NAME?</fb>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06FB2292-5AEA-432F-8128-9E05D027336D}" name="operations" displayName="operations" ref="A1:G207" totalsRowShown="0" headerRowDxfId="150">
   <autoFilter ref="A1:G207" xr:uid="{06FB2292-5AEA-432F-8128-9E05D027336D}"/>
@@ -1073,7 +1162,7 @@
     <tableColumn id="3" xr3:uid="{42F21B05-1EA2-42E9-AD25-E18F92D7BBC2}" name="Product"/>
     <tableColumn id="4" xr3:uid="{A0B78DDA-1BEB-4036-9D32-35449A6B08C1}" name="Category"/>
     <tableColumn id="5" xr3:uid="{9EF6016E-E3B1-4E3E-991B-F5E00CFE901D}" name="Type"/>
-    <tableColumn id="6" xr3:uid="{147FFA3B-4FD7-47DA-9D08-5FBF36B6DC4E}" name="Date" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{147FFA3B-4FD7-47DA-9D08-5FBF36B6DC4E}" name="Date" dataDxfId="149"/>
     <tableColumn id="7" xr3:uid="{675EA7AB-7E1A-4E20-BE13-A7C70DB7DAD2}" name="Month"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1085,7 +1174,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{168C627F-3D4D-4370-9AFA-1F5A9F24CF6C}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7E9A7B85-AE47-4B3E-872A-58A38926357F}" name="Total" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="1">
+    <tableColumn id="2" xr3:uid="{7E9A7B85-AE47-4B3E-872A-58A38926357F}" name="Total" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses2[Total])</totalsRowFormula>
     </tableColumn>
@@ -1099,7 +1188,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4A3C714-1CCB-4A14-8794-03528E048D73}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7E09AB56-4ED0-44EF-B2BD-456448C9DD19}" name="Total" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="128">
+    <tableColumn id="2" xr3:uid="{7E09AB56-4ED0-44EF-B2BD-456448C9DD19}" name="Total" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total2[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total2[Total])</totalsRowFormula>
     </tableColumn>
@@ -1114,14 +1203,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{654BCD5B-09EA-4BA4-9E7D-6471BD04521D}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{93BF70F2-C60E-4D8B-8C65-3C8B39F3DB53}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{67C15AFC-896C-4A23-B5A1-C59215A6B1DA}" name="Opening balance" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="122">
+    <tableColumn id="3" xr3:uid="{67C15AFC-896C-4A23-B5A1-C59215A6B1DA}" name="Opening balance" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow3[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{68B45315-EBDC-4607-A8A9-822D9C97927A}" name="Operations" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="120">
+    <tableColumn id="4" xr3:uid="{68B45315-EBDC-4607-A8A9-822D9C97927A}" name="Operations" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow3[[#This Row],[Bank]],operations[Product],Flow3[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F5A4B5C-BD3B-453B-BB9B-C3CC1270E2B7}" name="Closing balance" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="118">
+    <tableColumn id="5" xr3:uid="{4F5A4B5C-BD3B-453B-BB9B-C3CC1270E2B7}" name="Closing balance" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>Flow3[[#This Row],[Opening balance]]+Flow3[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1134,7 +1223,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{16A45448-DECF-4566-B5EF-E3DF3622DAD0}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{09F11A00-1838-49CD-854C-47B467F445A0}" name="Total" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="116">
+    <tableColumn id="2" xr3:uid="{09F11A00-1838-49CD-854C-47B467F445A0}" name="Total" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes3[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes3[Total])</totalsRowFormula>
     </tableColumn>
@@ -1148,7 +1237,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E86B7A71-8F9B-40DB-B43D-58FB08867CEB}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{73EA3EE3-DEA3-4274-B1A7-70795654687F}" name="Total" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="2">
+    <tableColumn id="2" xr3:uid="{73EA3EE3-DEA3-4274-B1A7-70795654687F}" name="Total" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses3[Total])</totalsRowFormula>
     </tableColumn>
@@ -1162,7 +1251,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4B5DA16B-87E1-41E9-BC78-0E96F6FC3CA7}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{CA9FA418-82CF-4F4A-B031-9762F06D06D9}" name="Total" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="113">
+    <tableColumn id="2" xr3:uid="{CA9FA418-82CF-4F4A-B031-9762F06D06D9}" name="Total" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total3[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total3[Total])</totalsRowFormula>
     </tableColumn>
@@ -1177,14 +1266,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0A2A4332-7F9A-4089-9C24-AC99A2AABE8B}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{924A15E3-BEBA-4073-85A6-34CA7FE8F260}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{7CE552AB-F5A9-434B-B1D3-A7D97CB3D6EE}" name="Opening balance" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="111">
+    <tableColumn id="3" xr3:uid="{7CE552AB-F5A9-434B-B1D3-A7D97CB3D6EE}" name="Opening balance" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow4[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C917CC15-C56D-4EAC-9480-0DAB698C62E0}" name="Operations" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
+    <tableColumn id="4" xr3:uid="{C917CC15-C56D-4EAC-9480-0DAB698C62E0}" name="Operations" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow4[[#This Row],[Bank]],operations[Product],Flow4[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D965BCAD-3D68-4941-A691-2568C6D29156}" name="Closing balance" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
+    <tableColumn id="5" xr3:uid="{D965BCAD-3D68-4941-A691-2568C6D29156}" name="Closing balance" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>Flow4[[#This Row],[Opening balance]]+Flow4[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1197,7 +1286,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{410F4F7D-C29D-48A9-9D09-0EDE3F2C836B}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{9B7DE9DC-6436-45F6-9760-0D78646121EA}" name="Total" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="105">
+    <tableColumn id="2" xr3:uid="{9B7DE9DC-6436-45F6-9760-0D78646121EA}" name="Total" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes4[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes4[Total])</totalsRowFormula>
     </tableColumn>
@@ -1211,7 +1300,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1A7C83FC-B333-4CEF-B8F4-B18FA693771D}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{97A69D8E-B788-4DA6-83E7-4DC2C4B6EEB5}" name="Total" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="3">
+    <tableColumn id="2" xr3:uid="{97A69D8E-B788-4DA6-83E7-4DC2C4B6EEB5}" name="Total" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses4[Total])</totalsRowFormula>
     </tableColumn>
@@ -1225,7 +1314,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{ADB4974D-3A00-4FE5-A2C3-FE8A91AA44D4}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{EE0383DC-796E-4813-AD12-43B4A002A5CA}" name="Total" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="102">
+    <tableColumn id="2" xr3:uid="{EE0383DC-796E-4813-AD12-43B4A002A5CA}" name="Total" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total4[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total4[Total])</totalsRowFormula>
     </tableColumn>
@@ -1238,7 +1327,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC346233-4CB7-41B2-A903-0B776C034E39}" name="name" displayName="name" ref="A1:B17" totalsRowShown="0">
   <autoFilter ref="A1:B17" xr:uid="{CC346233-4CB7-41B2-A903-0B776C034E39}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{43698C38-7DBA-45F9-8C9C-F627B7DC1B02}" name="Category" dataDxfId="149"/>
+    <tableColumn id="1" xr3:uid="{43698C38-7DBA-45F9-8C9C-F627B7DC1B02}" name="Category" dataDxfId="148"/>
     <tableColumn id="2" xr3:uid="{8D835F55-E4CF-4163-8C5C-F93430B9BFAA}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1251,14 +1340,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F9F883ED-757F-4CD9-A422-AD028995212B}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3C50A197-94DE-4307-8CF1-2386879EDD33}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{F77A4DC5-B320-4540-AD02-60309B1E04AE}" name="Opening balance" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="100">
+    <tableColumn id="3" xr3:uid="{F77A4DC5-B320-4540-AD02-60309B1E04AE}" name="Opening balance" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow5[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BA96E1EB-7F41-46FC-B7E0-EE8FBE4CD335}" name="Operations" totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="98">
+    <tableColumn id="4" xr3:uid="{BA96E1EB-7F41-46FC-B7E0-EE8FBE4CD335}" name="Operations" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow5[[#This Row],[Bank]],operations[Product],Flow5[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5D386BB3-5DA1-4364-B325-9400DA465E7B}" name="Closing balance" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="96">
+    <tableColumn id="5" xr3:uid="{5D386BB3-5DA1-4364-B325-9400DA465E7B}" name="Closing balance" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90">
       <calculatedColumnFormula>Flow5[[#This Row],[Opening balance]]+Flow5[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1271,7 +1360,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9EBD0E30-2827-4500-8D58-9C2201B50036}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{E349F822-944B-4FB9-A098-35012B44ACF9}" name="Total" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="94">
+    <tableColumn id="2" xr3:uid="{E349F822-944B-4FB9-A098-35012B44ACF9}" name="Total" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes5[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes5[Total])</totalsRowFormula>
     </tableColumn>
@@ -1285,7 +1374,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2CDAF609-C162-467F-8991-B7D787C9DB78}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{E4EA7C98-0BD7-427B-987C-79DE2E65D37E}" name="Total" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="4">
+    <tableColumn id="2" xr3:uid="{E4EA7C98-0BD7-427B-987C-79DE2E65D37E}" name="Total" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses5[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses5[Total])</totalsRowFormula>
     </tableColumn>
@@ -1299,7 +1388,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BDF43473-96A0-40E7-BB14-828FF6EB029F}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{A8A5E2EE-D473-424D-A66C-CE0C845B4BC4}" name="Total" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="91">
+    <tableColumn id="2" xr3:uid="{A8A5E2EE-D473-424D-A66C-CE0C845B4BC4}" name="Total" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total5[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total5[Total])</totalsRowFormula>
     </tableColumn>
@@ -1314,14 +1403,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B524F5E4-83F9-40AB-82F0-16E01B1A8E64}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{0C77B188-7ABD-4FCE-868C-8DE73A9B6541}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{90FAC7DD-1FC7-43F3-93C2-CFE4D8D6389F}" name="Opening balance" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="89">
+    <tableColumn id="3" xr3:uid="{90FAC7DD-1FC7-43F3-93C2-CFE4D8D6389F}" name="Opening balance" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow6[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BDF730D9-106D-4B06-8535-626E48A63089}" name="Operations" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="87">
+    <tableColumn id="4" xr3:uid="{BDF730D9-106D-4B06-8535-626E48A63089}" name="Operations" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow6[[#This Row],[Bank]],operations[Product],Flow6[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AE3F9453-E585-431A-8CC7-64F66355BD30}" name="Closing balance" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="85">
+    <tableColumn id="5" xr3:uid="{AE3F9453-E585-431A-8CC7-64F66355BD30}" name="Closing balance" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>Flow6[[#This Row],[Opening balance]]+Flow6[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1334,7 +1423,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B730861E-D72C-457D-B2C8-739330291D27}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{03BBFD6A-0CDF-4ECB-B39D-74FDD7D7FCF8}" name="Total" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="83">
+    <tableColumn id="2" xr3:uid="{03BBFD6A-0CDF-4ECB-B39D-74FDD7D7FCF8}" name="Total" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes6[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes6[Total])</totalsRowFormula>
     </tableColumn>
@@ -1348,7 +1437,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E211EDBC-73B7-4A14-BEC3-54E51D75FD4D}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{B1A9A6F6-59EF-4814-AEFD-7F20BB19CDBC}" name="Total" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="5">
+    <tableColumn id="2" xr3:uid="{B1A9A6F6-59EF-4814-AEFD-7F20BB19CDBC}" name="Total" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses6[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses6[Total])</totalsRowFormula>
     </tableColumn>
@@ -1362,7 +1451,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6F30188C-112E-47D3-896F-5F710B15AD3A}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{4852D3C5-B90A-4815-9AFB-97694D3C97F6}" name="Total" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="80">
+    <tableColumn id="2" xr3:uid="{4852D3C5-B90A-4815-9AFB-97694D3C97F6}" name="Total" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total6[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total6[Total])</totalsRowFormula>
     </tableColumn>
@@ -1377,14 +1466,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{008AA200-4098-46C6-92FC-04C9D0984FC3}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{14403A98-D2F3-4002-9420-A83864894A3F}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{6CBAB8FB-1F50-46E4-9C26-7868D1DCDCBF}" name="Opening balance" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="78">
+    <tableColumn id="3" xr3:uid="{6CBAB8FB-1F50-46E4-9C26-7868D1DCDCBF}" name="Opening balance" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow7[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A86096C9-059E-4582-9740-03490243982F}" name="Operations" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="76">
+    <tableColumn id="4" xr3:uid="{A86096C9-059E-4582-9740-03490243982F}" name="Operations" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow7[[#This Row],[Bank]],operations[Product],Flow7[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4C55415C-E616-4819-9339-1C69BD208510}" name="Closing balance" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="74">
+    <tableColumn id="5" xr3:uid="{4C55415C-E616-4819-9339-1C69BD208510}" name="Closing balance" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>Flow7[[#This Row],[Opening balance]]+Flow7[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1397,7 +1486,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{399821BF-0E54-4E83-8EB7-0DA2DC1151B8}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{C20E20D5-3315-4931-8287-F848CEB6ABEE}" name="Total" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="72">
+    <tableColumn id="2" xr3:uid="{C20E20D5-3315-4931-8287-F848CEB6ABEE}" name="Total" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes7[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes7[Total])</totalsRowFormula>
     </tableColumn>
@@ -1407,14 +1496,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0AC74F63-A4DF-4A94-8C9D-80C0CBD99039}" name="Products" displayName="Products" ref="D1:E8" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0AC74F63-A4DF-4A94-8C9D-80C0CBD99039}" name="Products" displayName="Products" ref="D1:E8" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="D1:E8" xr:uid="{0AC74F63-A4DF-4A94-8C9D-80C0CBD99039}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E8">
     <sortCondition ref="D2:D8"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CE0DD4A3-563A-449E-B741-DA1306191CC4}" name="Bank" dataDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{C8B335C9-C5D4-45AE-B370-CA14E8329EC7}" name="Product" dataDxfId="145"/>
+    <tableColumn id="1" xr3:uid="{CE0DD4A3-563A-449E-B741-DA1306191CC4}" name="Bank" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{C8B335C9-C5D4-45AE-B370-CA14E8329EC7}" name="Product" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1425,7 +1514,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{34D1CE14-C679-4C5A-8431-6D173375A2C1}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{5CC4D5FA-399A-4BA6-BB85-E10960856E9B}" name="Total" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{5CC4D5FA-399A-4BA6-BB85-E10960856E9B}" name="Total" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses7[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses7[Total])</totalsRowFormula>
     </tableColumn>
@@ -1439,7 +1528,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{75DE651C-CE2E-4CD8-A43E-75D0EFF11831}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{DB110933-C4E4-4219-B605-38D84594192E}" name="Total" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="69">
+    <tableColumn id="2" xr3:uid="{DB110933-C4E4-4219-B605-38D84594192E}" name="Total" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total7[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total7[Total])</totalsRowFormula>
     </tableColumn>
@@ -1454,14 +1543,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{92BF7AB4-D0FA-4C90-8035-F7C2214B3E16}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{1E88CCA2-1E94-4C8F-A822-3D82BCD5D0B2}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{B67ACE88-1834-4914-8138-C250E4F2BFA2}" name="Opening balance" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="67">
+    <tableColumn id="3" xr3:uid="{B67ACE88-1834-4914-8138-C250E4F2BFA2}" name="Opening balance" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow8[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C15186EA-35D0-4682-BC0C-2B76F8B3F4C4}" name="Operations" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="65">
+    <tableColumn id="4" xr3:uid="{C15186EA-35D0-4682-BC0C-2B76F8B3F4C4}" name="Operations" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow8[[#This Row],[Bank]],operations[Product],Flow8[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DB63E524-BA11-439E-95C0-0C67C7EA8F43}" name="Closing balance" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="63">
+    <tableColumn id="5" xr3:uid="{DB63E524-BA11-439E-95C0-0C67C7EA8F43}" name="Closing balance" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>Flow8[[#This Row],[Opening balance]]+Flow8[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1474,7 +1563,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{01D9DC9D-4501-42F6-B002-212B86748157}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{D86AF341-ADEC-43BC-8B72-D8911ADB462B}" name="Total" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="61">
+    <tableColumn id="2" xr3:uid="{D86AF341-ADEC-43BC-8B72-D8911ADB462B}" name="Total" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes8[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes8[Total])</totalsRowFormula>
     </tableColumn>
@@ -1488,7 +1577,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{05C4854F-A71C-4250-BEE3-74EA20EA2B38}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{50EBF51A-A18D-4BCD-BC59-E66334090C6A}" name="Total" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="7">
+    <tableColumn id="2" xr3:uid="{50EBF51A-A18D-4BCD-BC59-E66334090C6A}" name="Total" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses8[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses8[Total])</totalsRowFormula>
     </tableColumn>
@@ -1502,7 +1591,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F5AFE125-5431-4E81-8970-882197796262}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7AE1A73E-DF0A-4ECA-9239-F2E3A8C00D04}" name="Total" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="58">
+    <tableColumn id="2" xr3:uid="{7AE1A73E-DF0A-4ECA-9239-F2E3A8C00D04}" name="Total" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total8[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total8[Total])</totalsRowFormula>
     </tableColumn>
@@ -1517,14 +1606,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CC75B004-C437-431F-BEFC-1B9FE6B7868F}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{A11A5AE8-2CB3-4C1A-935F-86BB36C59E88}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{3705BD3B-1DFF-463E-94BE-C8C39ED7A697}" name="Opening balance" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="56">
+    <tableColumn id="3" xr3:uid="{3705BD3B-1DFF-463E-94BE-C8C39ED7A697}" name="Opening balance" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow9[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C1657F9-5996-470D-997B-DEE0B9DCFAAC}" name="Operations" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="54">
+    <tableColumn id="4" xr3:uid="{3C1657F9-5996-470D-997B-DEE0B9DCFAAC}" name="Operations" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow9[[#This Row],[Bank]],operations[Product],Flow9[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9E2CF6C9-96DA-400B-9624-6B5DBA2BB718}" name="Closing balance" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="52">
+    <tableColumn id="5" xr3:uid="{9E2CF6C9-96DA-400B-9624-6B5DBA2BB718}" name="Closing balance" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>Flow9[[#This Row],[Opening balance]]+Flow9[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1537,7 +1626,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{21B695A3-1D11-458D-8809-C4FC9F75A574}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{5185E4BB-750A-4B11-B753-71EF4F798302}" name="Total" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="50">
+    <tableColumn id="2" xr3:uid="{5185E4BB-750A-4B11-B753-71EF4F798302}" name="Total" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes9[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes9[Total])</totalsRowFormula>
     </tableColumn>
@@ -1551,7 +1640,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DDA9A2DD-710E-4B2D-9898-834073916FAF}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{052F4050-1E10-44FC-811F-FD4DCEBC7990}" name="Total" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="8">
+    <tableColumn id="2" xr3:uid="{052F4050-1E10-44FC-811F-FD4DCEBC7990}" name="Total" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses9[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses9[Total])</totalsRowFormula>
     </tableColumn>
@@ -1565,7 +1654,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B13FB4F8-7C80-4B28-A33A-5B4D0CB67FE1}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{48FED4E1-334F-44A7-B5EF-CCDABAEB8E23}" name="Total" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="47">
+    <tableColumn id="2" xr3:uid="{48FED4E1-334F-44A7-B5EF-CCDABAEB8E23}" name="Total" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total9[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total9[Total])</totalsRowFormula>
     </tableColumn>
@@ -1580,13 +1669,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1EA9A758-C67C-4510-84BB-0812CB482B57}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{549368D9-B3F1-424B-B43C-29A96F88CA45}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{1BE67E26-0DC1-4714-BE9B-D0D467B8CBE5}" name="Opening balance" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="142">
+    <tableColumn id="3" xr3:uid="{1BE67E26-0DC1-4714-BE9B-D0D467B8CBE5}" name="Opening balance" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
       <totalsRowFormula>SUBTOTAL(9,Flow1[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BF66AA6-D374-4036-86CE-96C01ED2AA19}" name="Operations" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="141">
+    <tableColumn id="4" xr3:uid="{1BF66AA6-D374-4036-86CE-96C01ED2AA19}" name="Operations" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow1[[#This Row],[Bank]],operations[Product],Flow1[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EDC59951-C328-4A3E-9138-3F195AE6EDB4}" name="Closing balance" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="140">
+    <tableColumn id="5" xr3:uid="{EDC59951-C328-4A3E-9138-3F195AE6EDB4}" name="Closing balance" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>Flow1[[#This Row],[Opening balance]]+Flow1[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1600,14 +1689,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1F2DA14A-36AC-4B03-9C29-2DD488E5EDF7}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{364E6A46-8B74-4B5F-9D3B-2973743707B8}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{FC8B518C-B216-4B79-9560-177965469D3D}" name="Opening balance" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="45">
+    <tableColumn id="3" xr3:uid="{FC8B518C-B216-4B79-9560-177965469D3D}" name="Opening balance" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow10[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20DA0FA9-F081-48F7-8AAB-DEC8FCB8DB46}" name="Operations" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
+    <tableColumn id="4" xr3:uid="{20DA0FA9-F081-48F7-8AAB-DEC8FCB8DB46}" name="Operations" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow10[[#This Row],[Bank]],operations[Product],Flow10[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{42A743D3-CD89-4776-B440-B277C826ABA8}" name="Closing balance" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41">
+    <tableColumn id="5" xr3:uid="{42A743D3-CD89-4776-B440-B277C826ABA8}" name="Closing balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>Flow10[[#This Row],[Opening balance]]+Flow10[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1620,7 +1709,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{80CE5690-BEB2-46B6-846E-44521F5868E6}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{A4383EB9-99C4-43F8-9882-76E7AB9F3990}" name="Total" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="39">
+    <tableColumn id="2" xr3:uid="{A4383EB9-99C4-43F8-9882-76E7AB9F3990}" name="Total" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes10[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes10[Total])</totalsRowFormula>
     </tableColumn>
@@ -1634,7 +1723,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C23350B2-4304-4EDF-8A95-C4832659038C}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{CAA66257-0BAE-4219-AFAB-8E7437CAD62C}" name="Total" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="9">
+    <tableColumn id="2" xr3:uid="{CAA66257-0BAE-4219-AFAB-8E7437CAD62C}" name="Total" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses10[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses10[Total])</totalsRowFormula>
     </tableColumn>
@@ -1648,7 +1737,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D06268D-E673-43BA-87C6-EE849C9547E3}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{A2A1B960-EDA3-4B11-B02B-4FC645AAAA8C}" name="Total" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="2" xr3:uid="{A2A1B960-EDA3-4B11-B02B-4FC645AAAA8C}" name="Total" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total10[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total10[Total])</totalsRowFormula>
     </tableColumn>
@@ -1663,14 +1752,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{209C68A2-1D83-4BD8-99CD-364B6FCC95AB}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{FAEBD852-22B3-4D70-9D30-864C9D65FAD1}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{613B9195-B283-4F31-8E6B-39457A4FBFC0}" name="Opening balance" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="36">
+    <tableColumn id="3" xr3:uid="{613B9195-B283-4F31-8E6B-39457A4FBFC0}" name="Opening balance" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow11[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D01B2B02-3D95-4FFA-BE2B-282143C7C673}" name="Operations" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="34">
+    <tableColumn id="4" xr3:uid="{D01B2B02-3D95-4FFA-BE2B-282143C7C673}" name="Operations" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow11[[#This Row],[Bank]],operations[Product],Flow11[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B9E679BA-A01C-485C-8346-B62CCA638A46}" name="Closing balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="32">
+    <tableColumn id="5" xr3:uid="{B9E679BA-A01C-485C-8346-B62CCA638A46}" name="Closing balance" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>Flow11[[#This Row],[Opening balance]]+Flow11[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1683,7 +1772,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F3D45A2D-2CB2-4B99-A536-21F49D8D7519}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{D59768C2-3731-4239-8988-B6E6A45AFF0F}" name="Total" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="30">
+    <tableColumn id="2" xr3:uid="{D59768C2-3731-4239-8988-B6E6A45AFF0F}" name="Total" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes11[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes11[Total])</totalsRowFormula>
     </tableColumn>
@@ -1697,7 +1786,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EBB30AE4-3CB2-4307-B346-2ECC18B5CD8A}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{6521149F-4F47-4C02-9CC6-41F10F6C523A}" name="Total" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{6521149F-4F47-4C02-9CC6-41F10F6C523A}" name="Total" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses11[Total])</totalsRowFormula>
     </tableColumn>
@@ -1711,7 +1800,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A3AA1E1B-5030-4756-A08E-F8CF4F72272B}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{EB0B0187-106F-43AD-9ADA-29E02CDDE977}" name="Total" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="27">
+    <tableColumn id="2" xr3:uid="{EB0B0187-106F-43AD-9ADA-29E02CDDE977}" name="Total" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total11[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total11[Total])</totalsRowFormula>
     </tableColumn>
@@ -1726,14 +1815,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{140A19EB-4440-4351-AAC3-5FB7C90B08F6}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{B65CD190-68B6-4A9B-900F-01676B268648}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{37A41761-BDAC-49CC-84B6-FB4C4FE445D6}" name="Opening balance" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="25">
+    <tableColumn id="3" xr3:uid="{37A41761-BDAC-49CC-84B6-FB4C4FE445D6}" name="Opening balance" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow12[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0358B10C-F0D2-4656-96A7-27457E550A3F}" name="Operations" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="23">
+    <tableColumn id="4" xr3:uid="{0358B10C-F0D2-4656-96A7-27457E550A3F}" name="Operations" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow12[[#This Row],[Bank]],operations[Product],Flow12[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2F84D663-B14A-492F-9EDB-63BC03D15F7E}" name="Closing balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="21">
+    <tableColumn id="5" xr3:uid="{2F84D663-B14A-492F-9EDB-63BC03D15F7E}" name="Closing balance" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Flow12[[#This Row],[Opening balance]]+Flow12[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1746,7 +1835,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{29549188-51C5-4E2F-BD5F-C5529499F074}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7A2792B7-76DB-4FFA-B986-663DD8A3FEDA}" name="Total" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="19">
+    <tableColumn id="2" xr3:uid="{7A2792B7-76DB-4FFA-B986-663DD8A3FEDA}" name="Total" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes12[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes12[Total])</totalsRowFormula>
     </tableColumn>
@@ -1760,7 +1849,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{846EB052-EA58-4BB0-83E9-B99C78843362}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{E5FDE1B7-4EE4-49E5-BB58-9E3799D55433}" name="Total" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="134">
+    <tableColumn id="2" xr3:uid="{E5FDE1B7-4EE4-49E5-BB58-9E3799D55433}" name="Total" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes1[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes1[Total])</totalsRowFormula>
     </tableColumn>
@@ -1774,7 +1863,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0C7FA5EF-E7A3-4A05-9D6E-01667F23CF51}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{BC5D82A6-FE81-46AA-A73D-8F9CFDDC10EF}" name="Total" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="13">
+    <tableColumn id="2" xr3:uid="{BC5D82A6-FE81-46AA-A73D-8F9CFDDC10EF}" name="Total" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses12[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses12[Total])</totalsRowFormula>
     </tableColumn>
@@ -1788,7 +1877,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DC6164C2-1BB1-41B5-BA67-23EB1C567815}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{3F6DDC44-8EFC-4855-B9F2-4D4FB218A8F4}" name="Total" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="16">
+    <tableColumn id="2" xr3:uid="{3F6DDC44-8EFC-4855-B9F2-4D4FB218A8F4}" name="Total" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total12[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total12[Total])</totalsRowFormula>
     </tableColumn>
@@ -1802,7 +1891,7 @@
   <autoFilter ref="J1:K10" xr:uid="{0F882830-378E-4925-BD8B-BDADF3B60994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD7A1F8F-832C-4615-B52A-E4E3E17C1FE4}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F0F76304-01C8-474D-BE78-031C4407FBA6}" name="Total" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{F0F76304-01C8-474D-BE78-031C4407FBA6}" name="Total" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Expenses1[Total])</totalsRowFormula>
     </tableColumn>
@@ -1816,7 +1905,7 @@
   <autoFilter ref="A13:B16" xr:uid="{9100B6B5-494E-4F4E-A38A-343BCA6B4023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{43914533-C96D-4857-92E5-964D9C3BD621}" name="Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{A7D39D6C-A4D8-45EA-B0A4-02A5C390F394}" name="Total" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="136">
+    <tableColumn id="2" xr3:uid="{A7D39D6C-A4D8-45EA-B0A4-02A5C390F394}" name="Total" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Type], Total1[[#This Row],[Type]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Total1[Total])</totalsRowFormula>
     </tableColumn>
@@ -1831,14 +1920,14 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{32786B7D-F919-45D5-84C3-3869DE477709}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{714883E3-1CCF-481A-A31F-7CCA35072918}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{8F3E3D8C-D7C2-47A7-94CC-ACA792B104C8}" name="Opening balance" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="126">
+    <tableColumn id="3" xr3:uid="{8F3E3D8C-D7C2-47A7-94CC-ACA792B104C8}" name="Opening balance" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
       <calculatedColumnFormula array="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Flow2[Opening balance])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{155F4FFB-FD26-4657-B4F5-D5F478698998}" name="Operations" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="125">
+    <tableColumn id="4" xr3:uid="{155F4FFB-FD26-4657-B4F5-D5F478698998}" name="Operations" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128">
       <calculatedColumnFormula>SUMIFS(operations[Amount],operations[Bank],Flow2[[#This Row],[Bank]],operations[Product],Flow2[[#This Row],[Product]],operations[Month],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5CF6C1CB-FD1F-480A-AA58-86F4685DF4F5}" name="Closing balance" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="124">
+    <tableColumn id="5" xr3:uid="{5CF6C1CB-FD1F-480A-AA58-86F4685DF4F5}" name="Closing balance" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>Flow2[[#This Row],[Opening balance]]+Flow2[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1851,7 +1940,7 @@
   <autoFilter ref="G1:H7" xr:uid="{659F4518-6159-4369-AA91-CF0A05C7468B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{34F9E148-A970-4D7E-A146-925BF89464BF}" name="Category" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{C502F03B-1CD6-4053-8DEB-F0FA2A2C4AD0}" name="Total" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="131">
+    <tableColumn id="2" xr3:uid="{C502F03B-1CD6-4053-8DEB-F0FA2A2C4AD0}" name="Total" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
       <calculatedColumnFormula>SUMIFS(operations[Amount], operations[Category], Incomes2[[#This Row],[Category]], operations[Month], $B$11)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Incomes2[Total])</totalsRowFormula>
     </tableColumn>
@@ -2159,7 +2248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD4FC0-ED61-44FB-852D-53E3AF5E902C}">
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
       <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
@@ -2193,7 +2282,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2217,7 +2306,7 @@
       <c r="F2" s="3">
         <v>45296</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2242,7 +2331,7 @@
       <c r="F3" s="3">
         <v>45301</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2267,7 +2356,7 @@
       <c r="F4" s="3">
         <v>45302</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2292,7 +2381,7 @@
       <c r="F5" s="3">
         <v>45305</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2317,7 +2406,7 @@
       <c r="F6" s="3">
         <v>45306</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2342,7 +2431,7 @@
       <c r="F7" s="3">
         <v>45307</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2367,7 +2456,7 @@
       <c r="F8" s="3">
         <v>45308</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2392,7 +2481,7 @@
       <c r="F9" s="3">
         <v>45308</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2417,7 +2506,7 @@
       <c r="F10" s="3">
         <v>45308</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2442,7 +2531,7 @@
       <c r="F11" s="3">
         <v>45310</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2467,7 +2556,7 @@
       <c r="F12" s="3">
         <v>45311</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2492,7 +2581,7 @@
       <c r="F13" s="3">
         <v>45312</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2517,7 +2606,7 @@
       <c r="F14" s="3">
         <v>45313</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2542,7 +2631,7 @@
       <c r="F15" s="3">
         <v>45314</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2567,7 +2656,7 @@
       <c r="F16" s="3">
         <v>45315</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2592,7 +2681,7 @@
       <c r="F17" s="3">
         <v>45316</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2617,7 +2706,7 @@
       <c r="F18" s="3">
         <v>45316</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2642,7 +2731,7 @@
       <c r="F19" s="3">
         <v>45317</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2667,7 +2756,7 @@
       <c r="F20" s="3">
         <v>45318</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2692,7 +2781,7 @@
       <c r="F21" s="3">
         <v>45319</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -2717,7 +2806,7 @@
       <c r="F22" s="3">
         <v>45324</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2742,7 +2831,7 @@
       <c r="F23" s="3">
         <v>45326</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2767,7 +2856,7 @@
       <c r="F24" s="3">
         <v>45328</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2792,7 +2881,7 @@
       <c r="F25" s="3">
         <v>45332</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2817,7 +2906,7 @@
       <c r="F26" s="3">
         <v>45333</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2842,7 +2931,7 @@
       <c r="F27" s="3">
         <v>45335</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2867,7 +2956,7 @@
       <c r="F28" s="3">
         <v>45336</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2892,7 +2981,7 @@
       <c r="F29" s="3">
         <v>45336</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2917,7 +3006,7 @@
       <c r="F30" s="3">
         <v>45336</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2942,7 +3031,7 @@
       <c r="F31" s="3">
         <v>45336</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2967,7 +3056,7 @@
       <c r="F32" s="3">
         <v>45337</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -2992,7 +3081,7 @@
       <c r="F33" s="3">
         <v>45337</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3017,7 +3106,7 @@
       <c r="F34" s="3">
         <v>45339</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3042,7 +3131,7 @@
       <c r="F35" s="3">
         <v>45342</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3067,7 +3156,7 @@
       <c r="F36" s="3">
         <v>45344</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3092,7 +3181,7 @@
       <c r="F37" s="3">
         <v>45345</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3117,7 +3206,7 @@
       <c r="F38" s="3">
         <v>45346</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3142,7 +3231,7 @@
       <c r="F39" s="3">
         <v>45347</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3167,7 +3256,7 @@
       <c r="F40" s="3">
         <v>45347</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3192,7 +3281,7 @@
       <c r="F41" s="3">
         <v>45348</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3217,7 +3306,7 @@
       <c r="F42" s="3">
         <v>45348</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3242,7 +3331,7 @@
       <c r="F43" s="3">
         <v>45349</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3267,7 +3356,7 @@
       <c r="F44" s="3">
         <v>45350</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3292,7 +3381,7 @@
       <c r="F45" s="3">
         <v>45350</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -3317,7 +3406,7 @@
       <c r="F46" s="3">
         <v>45352</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3342,7 +3431,7 @@
       <c r="F47" s="3">
         <v>45353</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3367,7 +3456,7 @@
       <c r="F48" s="3">
         <v>45353</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3392,7 +3481,7 @@
       <c r="F49" s="3">
         <v>45355</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3417,7 +3506,7 @@
       <c r="F50" s="3">
         <v>45357</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3442,7 +3531,7 @@
       <c r="F51" s="3">
         <v>45359</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3467,7 +3556,7 @@
       <c r="F52" s="3">
         <v>45361</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3492,7 +3581,7 @@
       <c r="F53" s="3">
         <v>45362</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3517,7 +3606,7 @@
       <c r="F54" s="3">
         <v>45363</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3542,7 +3631,7 @@
       <c r="F55" s="3">
         <v>45364</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3567,7 +3656,7 @@
       <c r="F56" s="3">
         <v>45368</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3592,7 +3681,7 @@
       <c r="F57" s="3">
         <v>45371</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3617,7 +3706,7 @@
       <c r="F58" s="3">
         <v>45373</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3642,7 +3731,7 @@
       <c r="F59" s="3">
         <v>45375</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3667,7 +3756,7 @@
       <c r="F60" s="3">
         <v>45377</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3692,7 +3781,7 @@
       <c r="F61" s="3">
         <v>45379</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3717,7 +3806,7 @@
       <c r="F62" s="3">
         <v>45381</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
@@ -3742,7 +3831,7 @@
       <c r="F63" s="3">
         <v>45383</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3767,7 +3856,7 @@
       <c r="F64" s="3">
         <v>45384</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3792,7 +3881,7 @@
       <c r="F65" s="3">
         <v>45388</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3817,7 +3906,7 @@
       <c r="F66" s="3">
         <v>45389</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3842,7 +3931,7 @@
       <c r="F67" s="3">
         <v>45392</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G67" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3867,7 +3956,7 @@
       <c r="F68" s="3">
         <v>45393</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G68" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3892,7 +3981,7 @@
       <c r="F69" s="3">
         <v>45395</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3917,7 +4006,7 @@
       <c r="F70" s="3">
         <v>45397</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G70" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3942,7 +4031,7 @@
       <c r="F71" s="3">
         <v>45397</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3967,7 +4056,7 @@
       <c r="F72" s="3">
         <v>45397</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -3992,7 +4081,7 @@
       <c r="F73" s="3">
         <v>45398</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G73" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4017,7 +4106,7 @@
       <c r="F74" s="3">
         <v>45399</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G74" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4042,7 +4131,7 @@
       <c r="F75" s="3">
         <v>45401</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G75" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4067,7 +4156,7 @@
       <c r="F76" s="3">
         <v>45403</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G76" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4092,7 +4181,7 @@
       <c r="F77" s="3">
         <v>45405</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G77" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4117,7 +4206,7 @@
       <c r="F78" s="3">
         <v>45407</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G78" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4142,7 +4231,7 @@
       <c r="F79" s="3">
         <v>45409</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G79" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4167,7 +4256,7 @@
       <c r="F80" s="3">
         <v>45410</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G80" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4192,7 +4281,7 @@
       <c r="F81" s="3">
         <v>45411</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G81" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
@@ -4217,7 +4306,7 @@
       <c r="F82" s="3">
         <v>45419</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G82" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4242,7 +4331,7 @@
       <c r="F83" s="3">
         <v>45422</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4267,7 +4356,7 @@
       <c r="F84" s="3">
         <v>45422</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G84" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4292,7 +4381,7 @@
       <c r="F85" s="3">
         <v>45423</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4317,7 +4406,7 @@
       <c r="F86" s="3">
         <v>45426</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4342,7 +4431,7 @@
       <c r="F87" s="3">
         <v>45427</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G87" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4367,7 +4456,7 @@
       <c r="F88" s="3">
         <v>45427</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G88" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4392,7 +4481,7 @@
       <c r="F89" s="3">
         <v>45433</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4417,7 +4506,7 @@
       <c r="F90" s="3">
         <v>45440</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G90" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4442,7 +4531,7 @@
       <c r="F91" s="3">
         <v>45441</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G91" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4467,7 +4556,7 @@
       <c r="F92" s="3">
         <v>45442</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G92" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
@@ -4492,7 +4581,7 @@
       <c r="F93" s="3">
         <v>45450</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4517,7 +4606,7 @@
       <c r="F94" s="3">
         <v>45453</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G94" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4542,7 +4631,7 @@
       <c r="F95" s="3">
         <v>45453</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4567,7 +4656,7 @@
       <c r="F96" s="3">
         <v>45454</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4592,7 +4681,7 @@
       <c r="F97" s="3">
         <v>45457</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4617,7 +4706,7 @@
       <c r="F98" s="3">
         <v>45458</v>
       </c>
-      <c r="G98" s="19">
+      <c r="G98" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4642,7 +4731,7 @@
       <c r="F99" s="3">
         <v>45458</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4667,7 +4756,7 @@
       <c r="F100" s="3">
         <v>45458</v>
       </c>
-      <c r="G100" s="19">
+      <c r="G100" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4692,7 +4781,7 @@
       <c r="F101" s="3">
         <v>45464</v>
       </c>
-      <c r="G101" s="19">
+      <c r="G101" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4717,7 +4806,7 @@
       <c r="F102" s="3">
         <v>45471</v>
       </c>
-      <c r="G102" s="19">
+      <c r="G102" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4742,7 +4831,7 @@
       <c r="F103" s="3">
         <v>45471</v>
       </c>
-      <c r="G103" s="19">
+      <c r="G103" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4767,7 +4856,7 @@
       <c r="F104" s="3">
         <v>45472</v>
       </c>
-      <c r="G104" s="19">
+      <c r="G104" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4792,7 +4881,7 @@
       <c r="F105" s="3">
         <v>45472</v>
       </c>
-      <c r="G105" s="19">
+      <c r="G105" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4817,7 +4906,7 @@
       <c r="F106" s="3">
         <v>45473</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
@@ -4842,7 +4931,7 @@
       <c r="F107" s="3">
         <v>45476</v>
       </c>
-      <c r="G107" s="19">
+      <c r="G107" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -4867,7 +4956,7 @@
       <c r="F108" s="3">
         <v>45480</v>
       </c>
-      <c r="G108" s="19">
+      <c r="G108" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -4892,7 +4981,7 @@
       <c r="F109" s="3">
         <v>45483</v>
       </c>
-      <c r="G109" s="19">
+      <c r="G109" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -4917,7 +5006,7 @@
       <c r="F110" s="3">
         <v>45484</v>
       </c>
-      <c r="G110" s="19">
+      <c r="G110" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -4942,7 +5031,7 @@
       <c r="F111" s="3">
         <v>45487</v>
       </c>
-      <c r="G111" s="19">
+      <c r="G111" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -4967,7 +5056,7 @@
       <c r="F112" s="3">
         <v>45488</v>
       </c>
-      <c r="G112" s="19">
+      <c r="G112" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -4992,7 +5081,7 @@
       <c r="F113" s="3">
         <v>45488</v>
       </c>
-      <c r="G113" s="19">
+      <c r="G113" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5017,7 +5106,7 @@
       <c r="F114" s="3">
         <v>45489</v>
       </c>
-      <c r="G114" s="19">
+      <c r="G114" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5042,7 +5131,7 @@
       <c r="F115" s="3">
         <v>45491</v>
       </c>
-      <c r="G115" s="19">
+      <c r="G115" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5067,7 +5156,7 @@
       <c r="F116" s="3">
         <v>45494</v>
       </c>
-      <c r="G116" s="19">
+      <c r="G116" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5092,7 +5181,7 @@
       <c r="F117" s="3">
         <v>45495</v>
       </c>
-      <c r="G117" s="19">
+      <c r="G117" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5117,7 +5206,7 @@
       <c r="F118" s="3">
         <v>45497</v>
       </c>
-      <c r="G118" s="19">
+      <c r="G118" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5142,7 +5231,7 @@
       <c r="F119" s="3">
         <v>45499</v>
       </c>
-      <c r="G119" s="19">
+      <c r="G119" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5167,7 +5256,7 @@
       <c r="F120" s="3">
         <v>45502</v>
       </c>
-      <c r="G120" s="19">
+      <c r="G120" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5192,7 +5281,7 @@
       <c r="F121" s="3">
         <v>45503</v>
       </c>
-      <c r="G121" s="19">
+      <c r="G121" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5217,7 +5306,7 @@
       <c r="F122" s="3">
         <v>45504</v>
       </c>
-      <c r="G122" s="19">
+      <c r="G122" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
@@ -5242,7 +5331,7 @@
       <c r="F123" s="3">
         <v>45505</v>
       </c>
-      <c r="G123" s="19">
+      <c r="G123" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5267,7 +5356,7 @@
       <c r="F124" s="3">
         <v>45505</v>
       </c>
-      <c r="G124" s="19">
+      <c r="G124" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5292,7 +5381,7 @@
       <c r="F125" s="3">
         <v>45505</v>
       </c>
-      <c r="G125" s="19">
+      <c r="G125" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5317,7 +5406,7 @@
       <c r="F126" s="3">
         <v>45513</v>
       </c>
-      <c r="G126" s="19">
+      <c r="G126" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5342,7 +5431,7 @@
       <c r="F127" s="3">
         <v>45514</v>
       </c>
-      <c r="G127" s="19">
+      <c r="G127" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5367,7 +5456,7 @@
       <c r="F128" s="3">
         <v>45515</v>
       </c>
-      <c r="G128" s="19">
+      <c r="G128" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5392,7 +5481,7 @@
       <c r="F129" s="3">
         <v>45518</v>
       </c>
-      <c r="G129" s="19">
+      <c r="G129" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5417,7 +5506,7 @@
       <c r="F130" s="3">
         <v>45519</v>
       </c>
-      <c r="G130" s="19">
+      <c r="G130" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5442,7 +5531,7 @@
       <c r="F131" s="3">
         <v>45519</v>
       </c>
-      <c r="G131" s="19">
+      <c r="G131" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5467,7 +5556,7 @@
       <c r="F132" s="3">
         <v>45520</v>
       </c>
-      <c r="G132" s="19">
+      <c r="G132" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5492,7 +5581,7 @@
       <c r="F133" s="3">
         <v>45522</v>
       </c>
-      <c r="G133" s="19">
+      <c r="G133" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5517,7 +5606,7 @@
       <c r="F134" s="3">
         <v>45524</v>
       </c>
-      <c r="G134" s="19">
+      <c r="G134" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5542,7 +5631,7 @@
       <c r="F135" s="3">
         <v>45526</v>
       </c>
-      <c r="G135" s="19">
+      <c r="G135" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5567,7 +5656,7 @@
       <c r="F136" s="3">
         <v>45527</v>
       </c>
-      <c r="G136" s="19">
+      <c r="G136" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5592,7 +5681,7 @@
       <c r="F137" s="3">
         <v>45528</v>
       </c>
-      <c r="G137" s="19">
+      <c r="G137" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5617,7 +5706,7 @@
       <c r="F138" s="3">
         <v>45531</v>
       </c>
-      <c r="G138" s="19">
+      <c r="G138" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5642,7 +5731,7 @@
       <c r="F139" s="3">
         <v>45534</v>
       </c>
-      <c r="G139" s="19">
+      <c r="G139" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5667,7 +5756,7 @@
       <c r="F140" s="3">
         <v>45535</v>
       </c>
-      <c r="G140" s="19">
+      <c r="G140" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>8</v>
       </c>
@@ -5692,7 +5781,7 @@
       <c r="F141" s="3">
         <v>45536</v>
       </c>
-      <c r="G141" s="19">
+      <c r="G141" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5717,7 +5806,7 @@
       <c r="F142" s="3">
         <v>45539</v>
       </c>
-      <c r="G142" s="19">
+      <c r="G142" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5742,7 +5831,7 @@
       <c r="F143" s="3">
         <v>45542</v>
       </c>
-      <c r="G143" s="19">
+      <c r="G143" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5767,7 +5856,7 @@
       <c r="F144" s="3">
         <v>45543</v>
       </c>
-      <c r="G144" s="19">
+      <c r="G144" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5792,7 +5881,7 @@
       <c r="F145" s="3">
         <v>45545</v>
       </c>
-      <c r="G145" s="19">
+      <c r="G145" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5817,7 +5906,7 @@
       <c r="F146" s="3">
         <v>45546</v>
       </c>
-      <c r="G146" s="19">
+      <c r="G146" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5842,7 +5931,7 @@
       <c r="F147" s="3">
         <v>45546</v>
       </c>
-      <c r="G147" s="19">
+      <c r="G147" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5867,7 +5956,7 @@
       <c r="F148" s="3">
         <v>45550</v>
       </c>
-      <c r="G148" s="19">
+      <c r="G148" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5892,7 +5981,7 @@
       <c r="F149" s="3">
         <v>45550</v>
       </c>
-      <c r="G149" s="19">
+      <c r="G149" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5917,7 +6006,7 @@
       <c r="F150" s="3">
         <v>45553</v>
       </c>
-      <c r="G150" s="19">
+      <c r="G150" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
@@ -5942,7 +6031,7 @@
       <c r="F151" s="3">
         <v>45566</v>
       </c>
-      <c r="G151" s="19">
+      <c r="G151" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -5967,7 +6056,7 @@
       <c r="F152" s="3">
         <v>45572</v>
       </c>
-      <c r="G152" s="19">
+      <c r="G152" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -5992,7 +6081,7 @@
       <c r="F153" s="3">
         <v>45573</v>
       </c>
-      <c r="G153" s="19">
+      <c r="G153" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -6017,7 +6106,7 @@
       <c r="F154" s="3">
         <v>45575</v>
       </c>
-      <c r="G154" s="19">
+      <c r="G154" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -6042,7 +6131,7 @@
       <c r="F155" s="3">
         <v>45576</v>
       </c>
-      <c r="G155" s="19">
+      <c r="G155" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -6067,7 +6156,7 @@
       <c r="F156" s="3">
         <v>45576</v>
       </c>
-      <c r="G156" s="19">
+      <c r="G156" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -6092,7 +6181,7 @@
       <c r="F157" s="3">
         <v>45580</v>
       </c>
-      <c r="G157" s="19">
+      <c r="G157" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -6117,7 +6206,7 @@
       <c r="F158" s="3">
         <v>45580</v>
       </c>
-      <c r="G158" s="19">
+      <c r="G158" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -6142,7 +6231,7 @@
       <c r="F159" s="3">
         <v>45606</v>
       </c>
-      <c r="G159" s="19">
+      <c r="G159" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6167,7 +6256,7 @@
       <c r="F160" s="3">
         <v>45607</v>
       </c>
-      <c r="G160" s="19">
+      <c r="G160" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6192,7 +6281,7 @@
       <c r="F161" s="3">
         <v>45607</v>
       </c>
-      <c r="G161" s="19">
+      <c r="G161" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6217,7 +6306,7 @@
       <c r="F162" s="3">
         <v>45607</v>
       </c>
-      <c r="G162" s="19">
+      <c r="G162" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6242,7 +6331,7 @@
       <c r="F163" s="3">
         <v>45608</v>
       </c>
-      <c r="G163" s="19">
+      <c r="G163" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6267,7 +6356,7 @@
       <c r="F164" s="3">
         <v>45610</v>
       </c>
-      <c r="G164" s="19">
+      <c r="G164" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6292,7 +6381,7 @@
       <c r="F165" s="3">
         <v>45611</v>
       </c>
-      <c r="G165" s="19">
+      <c r="G165" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6317,7 +6406,7 @@
       <c r="F166" s="3">
         <v>45611</v>
       </c>
-      <c r="G166" s="19">
+      <c r="G166" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6342,7 +6431,7 @@
       <c r="F167" s="3">
         <v>45612</v>
       </c>
-      <c r="G167" s="19">
+      <c r="G167" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6367,7 +6456,7 @@
       <c r="F168" s="3">
         <v>45613</v>
       </c>
-      <c r="G168" s="19">
+      <c r="G168" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6392,7 +6481,7 @@
       <c r="F169" s="3">
         <v>45613</v>
       </c>
-      <c r="G169" s="19">
+      <c r="G169" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6417,7 +6506,7 @@
       <c r="F170" s="3">
         <v>45615</v>
       </c>
-      <c r="G170" s="19">
+      <c r="G170" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6442,7 +6531,7 @@
       <c r="F171" s="3">
         <v>45616</v>
       </c>
-      <c r="G171" s="19">
+      <c r="G171" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6467,7 +6556,7 @@
       <c r="F172" s="3">
         <v>45617</v>
       </c>
-      <c r="G172" s="19">
+      <c r="G172" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6492,7 +6581,7 @@
       <c r="F173" s="3">
         <v>45618</v>
       </c>
-      <c r="G173" s="19">
+      <c r="G173" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6517,7 +6606,7 @@
       <c r="F174" s="3">
         <v>45618</v>
       </c>
-      <c r="G174" s="19">
+      <c r="G174" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6542,7 +6631,7 @@
       <c r="F175" s="3">
         <v>45618</v>
       </c>
-      <c r="G175" s="19">
+      <c r="G175" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6567,7 +6656,7 @@
       <c r="F176" s="3">
         <v>45619</v>
       </c>
-      <c r="G176" s="19">
+      <c r="G176" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6592,7 +6681,7 @@
       <c r="F177" s="3">
         <v>45619</v>
       </c>
-      <c r="G177" s="19">
+      <c r="G177" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6617,7 +6706,7 @@
       <c r="F178" s="3">
         <v>45621</v>
       </c>
-      <c r="G178" s="19">
+      <c r="G178" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6642,7 +6731,7 @@
       <c r="F179" s="3">
         <v>45622</v>
       </c>
-      <c r="G179" s="19">
+      <c r="G179" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6667,7 +6756,7 @@
       <c r="F180" s="3">
         <v>45623</v>
       </c>
-      <c r="G180" s="19">
+      <c r="G180" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6692,7 +6781,7 @@
       <c r="F181" s="3">
         <v>45623</v>
       </c>
-      <c r="G181" s="19">
+      <c r="G181" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6717,7 +6806,7 @@
       <c r="F182" s="3">
         <v>45623</v>
       </c>
-      <c r="G182" s="19">
+      <c r="G182" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6742,7 +6831,7 @@
       <c r="F183" s="3">
         <v>45624</v>
       </c>
-      <c r="G183" s="19">
+      <c r="G183" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6767,7 +6856,7 @@
       <c r="F184" s="3">
         <v>45625</v>
       </c>
-      <c r="G184" s="19">
+      <c r="G184" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6792,7 +6881,7 @@
       <c r="F185" s="3">
         <v>45626</v>
       </c>
-      <c r="G185" s="19">
+      <c r="G185" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -6817,7 +6906,7 @@
       <c r="F186" s="3">
         <v>45627</v>
       </c>
-      <c r="G186" s="19">
+      <c r="G186" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -6842,7 +6931,7 @@
       <c r="F187" s="3">
         <v>45627</v>
       </c>
-      <c r="G187" s="19">
+      <c r="G187" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -6867,7 +6956,7 @@
       <c r="F188" s="3">
         <v>45628</v>
       </c>
-      <c r="G188" s="19">
+      <c r="G188" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -6892,7 +6981,7 @@
       <c r="F189" s="3">
         <v>45628</v>
       </c>
-      <c r="G189" s="19">
+      <c r="G189" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -6917,7 +7006,7 @@
       <c r="F190" s="3">
         <v>45628</v>
       </c>
-      <c r="G190" s="19">
+      <c r="G190" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -6942,7 +7031,7 @@
       <c r="F191" s="3">
         <v>45628</v>
       </c>
-      <c r="G191" s="19">
+      <c r="G191" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -6967,7 +7056,7 @@
       <c r="F192" s="3">
         <v>45628</v>
       </c>
-      <c r="G192" s="19">
+      <c r="G192" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -6992,7 +7081,7 @@
       <c r="F193" s="3">
         <v>45628</v>
       </c>
-      <c r="G193" s="19">
+      <c r="G193" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7017,7 +7106,7 @@
       <c r="F194" s="3">
         <v>45629</v>
       </c>
-      <c r="G194" s="19">
+      <c r="G194" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7042,7 +7131,7 @@
       <c r="F195" s="3">
         <v>45629</v>
       </c>
-      <c r="G195" s="19">
+      <c r="G195" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7067,7 +7156,7 @@
       <c r="F196" s="3">
         <v>45632</v>
       </c>
-      <c r="G196" s="19">
+      <c r="G196" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7092,7 +7181,7 @@
       <c r="F197" s="3">
         <v>45632</v>
       </c>
-      <c r="G197" s="19">
+      <c r="G197" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7117,7 +7206,7 @@
       <c r="F198" s="3">
         <v>45636</v>
       </c>
-      <c r="G198" s="19">
+      <c r="G198" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7142,7 +7231,7 @@
       <c r="F199" s="3">
         <v>45637</v>
       </c>
-      <c r="G199" s="19">
+      <c r="G199" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7167,7 +7256,7 @@
       <c r="F200" s="3">
         <v>45640</v>
       </c>
-      <c r="G200" s="19">
+      <c r="G200" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7192,7 +7281,7 @@
       <c r="F201" s="3">
         <v>45641</v>
       </c>
-      <c r="G201" s="19">
+      <c r="G201" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7217,7 +7306,7 @@
       <c r="F202" s="3">
         <v>45644</v>
       </c>
-      <c r="G202" s="19">
+      <c r="G202" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7242,7 +7331,7 @@
       <c r="F203" s="3">
         <v>45648</v>
       </c>
-      <c r="G203" s="19">
+      <c r="G203" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7267,7 +7356,7 @@
       <c r="F204" s="3">
         <v>45649</v>
       </c>
-      <c r="G204" s="19">
+      <c r="G204" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7292,7 +7381,7 @@
       <c r="F205" s="3">
         <v>45650</v>
       </c>
-      <c r="G205" s="19">
+      <c r="G205" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7317,7 +7406,7 @@
       <c r="F206" s="3">
         <v>45654</v>
       </c>
-      <c r="G206" s="19">
+      <c r="G206" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
@@ -7342,13 +7431,13 @@
       <c r="F207" s="3">
         <v>45656</v>
       </c>
-      <c r="G207" s="19">
+      <c r="G207" s="1">
         <f>MONTH(operations[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="22"/>
+      <c r="A209" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7434,17 +7523,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>368.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow8[[#This Row],[Bank]],operations[Product],Flow8[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>200</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow8[[#This Row],[Opening balance]]+Flow8[[#This Row],[Operations]]</f>
-        <v>568.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -7458,7 +7547,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7468,17 +7557,17 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1386</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow8[[#This Row],[Bank]],operations[Product],Flow8[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-300</v>
-      </c>
-      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow8[[#This Row],[Opening balance]]+Flow8[[#This Row],[Operations]]</f>
-        <v>1086</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -7492,7 +7581,7 @@
       </c>
       <c r="K3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7502,31 +7591,31 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>9882.44</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow8[[#This Row],[Bank]],operations[Product],Flow8[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1475</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow8[[#This Row],[Opening balance]]+Flow8[[#This Row],[Operations]]</f>
-        <v>11357.44</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7536,17 +7625,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-135</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow8[[#This Row],[Bank]],operations[Product],Flow8[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>33</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow8[[#This Row],[Opening balance]]+Flow8[[#This Row],[Operations]]</f>
-        <v>-102</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -7560,7 +7649,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-749.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7570,31 +7659,31 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1020</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow8[[#This Row],[Bank]],operations[Product],Flow8[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-1020</v>
-      </c>
-      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow8[[#This Row],[Opening balance]]+Flow8[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7604,24 +7693,24 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>195.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow8[[#This Row],[Bank]],operations[Product],Flow8[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow8[[#This Row],[Opening balance]]+Flow8[[#This Row],[Operations]]</f>
-        <v>195.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -7638,24 +7727,24 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>390.5</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow8[[#This Row],[Bank]],operations[Product],Flow8[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>2.5</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow8[[#This Row],[Opening balance]]+Flow8[[#This Row],[Operations]]</f>
-        <v>393</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes8[Total])</f>
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -7669,17 +7758,17 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow8[Opening balance])</f>
-        <v>13107.95</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow8[Operations])</f>
-        <v>390.5</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow8[Closing balance])</f>
-        <v>13498.45</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -7695,16 +7784,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses8[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>8</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -7712,7 +7801,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses8[Total])</f>
-        <v>-3989.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7730,7 +7819,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total8[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-3989.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7739,7 +7828,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total8[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7748,7 +7837,7 @@
       </c>
       <c r="B16" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total8[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-1020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7757,7 +7846,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total8[Total])</f>
-        <v>390.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7829,17 +7918,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>568.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow9[[#This Row],[Bank]],operations[Product],Flow9[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-20</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow9[[#This Row],[Opening balance]]+Flow9[[#This Row],[Operations]]</f>
-        <v>548.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -7853,7 +7942,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses9[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7863,17 +7952,17 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1086</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow9[[#This Row],[Bank]],operations[Product],Flow9[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow9[[#This Row],[Opening balance]]+Flow9[[#This Row],[Operations]]</f>
-        <v>1086</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -7897,17 +7986,17 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>11357.44</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow9[[#This Row],[Bank]],operations[Product],Flow9[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1689.5</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow9[[#This Row],[Opening balance]]+Flow9[[#This Row],[Operations]]</f>
-        <v>13046.94</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -7921,7 +8010,7 @@
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses9[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7931,17 +8020,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-102</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow9[[#This Row],[Bank]],operations[Product],Flow9[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>82</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow9[[#This Row],[Opening balance]]+Flow9[[#This Row],[Operations]]</f>
-        <v>-20</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -7955,7 +8044,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses9[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-538.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7965,24 +8054,24 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow9[[#This Row],[Bank]],operations[Product],Flow9[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow9[[#This Row],[Opening balance]]+Flow9[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes9[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -7999,17 +8088,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>195.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow9[[#This Row],[Bank]],operations[Product],Flow9[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow9[[#This Row],[Opening balance]]+Flow9[[#This Row],[Operations]]</f>
-        <v>195.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -8023,7 +8112,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses9[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8033,24 +8122,24 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>393</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow9[[#This Row],[Bank]],operations[Product],Flow9[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow9[[#This Row],[Opening balance]]+Flow9[[#This Row],[Operations]]</f>
-        <v>393</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes9[Total])</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -8064,17 +8153,17 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow9[Opening balance])</f>
-        <v>13498.45</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow9[Operations])</f>
-        <v>1751.5</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow9[Closing balance])</f>
-        <v>15249.95</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -8090,16 +8179,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses9[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>9</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -8107,7 +8196,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses9[Total])</f>
-        <v>-2748.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8125,7 +8214,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total9[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-2748.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8134,7 +8223,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total9[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8152,7 +8241,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total9[Total])</f>
-        <v>1751.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8224,17 +8313,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>548.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow10[[#This Row],[Bank]],operations[Product],Flow10[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow10[[#This Row],[Opening balance]]+Flow10[[#This Row],[Operations]]</f>
-        <v>548.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -8248,7 +8337,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses10[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8258,17 +8347,17 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1086</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow10[[#This Row],[Bank]],operations[Product],Flow10[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow10[[#This Row],[Opening balance]]+Flow10[[#This Row],[Operations]]</f>
-        <v>1086</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8292,17 +8381,17 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>13046.94</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow10[[#This Row],[Bank]],operations[Product],Flow10[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1690</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow10[[#This Row],[Opening balance]]+Flow10[[#This Row],[Operations]]</f>
-        <v>14736.94</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -8316,7 +8405,7 @@
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses10[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8326,17 +8415,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-20</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow10[[#This Row],[Bank]],operations[Product],Flow10[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-20</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow10[[#This Row],[Opening balance]]+Flow10[[#This Row],[Operations]]</f>
-        <v>-40</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -8350,7 +8439,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses10[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8360,24 +8449,24 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow10[[#This Row],[Bank]],operations[Product],Flow10[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow10[[#This Row],[Opening balance]]+Flow10[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes10[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -8394,17 +8483,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>195.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow10[[#This Row],[Bank]],operations[Product],Flow10[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow10[[#This Row],[Opening balance]]+Flow10[[#This Row],[Operations]]</f>
-        <v>195.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -8418,7 +8507,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses10[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8428,24 +8517,24 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>393</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow10[[#This Row],[Bank]],operations[Product],Flow10[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow10[[#This Row],[Opening balance]]+Flow10[[#This Row],[Operations]]</f>
-        <v>393</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes10[Total])</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -8459,17 +8548,17 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow10[Opening balance])</f>
-        <v>15249.95</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow10[Operations])</f>
-        <v>1670</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow10[Closing balance])</f>
-        <v>16919.95</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -8485,16 +8574,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses10[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>10</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -8502,7 +8591,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses10[Total])</f>
-        <v>-2830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8520,7 +8609,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total10[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-2830</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -8532,7 +8621,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total10[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8550,7 +8639,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total10[Total])</f>
-        <v>1670</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8622,17 +8711,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>548.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow11[[#This Row],[Bank]],operations[Product],Flow11[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow11[[#This Row],[Opening balance]]+Flow11[[#This Row],[Operations]]</f>
-        <v>548.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -8646,7 +8735,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8656,17 +8745,17 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1086</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow11[[#This Row],[Bank]],operations[Product],Flow11[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow11[[#This Row],[Opening balance]]+Flow11[[#This Row],[Operations]]</f>
-        <v>1086</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8680,7 +8769,7 @@
       </c>
       <c r="K3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8690,31 +8779,31 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>14736.94</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow11[[#This Row],[Bank]],operations[Product],Flow11[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>960</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow11[[#This Row],[Opening balance]]+Flow11[[#This Row],[Operations]]</f>
-        <v>15696.94</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8724,17 +8813,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-40</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow11[[#This Row],[Bank]],operations[Product],Flow11[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>40</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow11[[#This Row],[Opening balance]]+Flow11[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -8748,7 +8837,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8758,31 +8847,31 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow11[[#This Row],[Bank]],operations[Product],Flow11[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow11[[#This Row],[Opening balance]]+Flow11[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8792,17 +8881,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>195.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow11[[#This Row],[Bank]],operations[Product],Flow11[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow11[[#This Row],[Opening balance]]+Flow11[[#This Row],[Operations]]</f>
-        <v>195.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -8816,7 +8905,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8826,48 +8915,48 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>393</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow11[[#This Row],[Bank]],operations[Product],Flow11[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>400</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow11[[#This Row],[Opening balance]]+Flow11[[#This Row],[Operations]]</f>
-        <v>793</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes11[Total])</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow11[Opening balance])</f>
-        <v>16919.95</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow11[Operations])</f>
-        <v>1400</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow11[Closing balance])</f>
-        <v>18319.95</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -8883,16 +8972,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses11[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>11</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -8900,7 +8989,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses11[Total])</f>
-        <v>-3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8918,7 +9007,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total11[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8927,7 +9016,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total11[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8945,7 +9034,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total11[Total])</f>
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9017,17 +9106,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>548.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow12[[#This Row],[Bank]],operations[Product],Flow12[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow12[[#This Row],[Opening balance]]+Flow12[[#This Row],[Operations]]</f>
-        <v>548.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -9041,7 +9130,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -9051,17 +9140,17 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1086</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow12[[#This Row],[Bank]],operations[Product],Flow12[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow12[[#This Row],[Opening balance]]+Flow12[[#This Row],[Operations]]</f>
-        <v>1086</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9075,7 +9164,7 @@
       </c>
       <c r="K3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9085,31 +9174,31 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>15696.94</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow12[[#This Row],[Bank]],operations[Product],Flow12[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1320</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow12[[#This Row],[Opening balance]]+Flow12[[#This Row],[Operations]]</f>
-        <v>17016.940000000002</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9119,17 +9208,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow12[[#This Row],[Bank]],operations[Product],Flow12[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow12[[#This Row],[Opening balance]]+Flow12[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -9143,7 +9232,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9153,31 +9242,31 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow12[[#This Row],[Bank]],operations[Product],Flow12[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow12[[#This Row],[Opening balance]]+Flow12[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9187,17 +9276,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>195.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow12[[#This Row],[Bank]],operations[Product],Flow12[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow12[[#This Row],[Opening balance]]+Flow12[[#This Row],[Operations]]</f>
-        <v>195.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -9221,55 +9310,55 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>793</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow12[[#This Row],[Bank]],operations[Product],Flow12[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1100</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow12[[#This Row],[Opening balance]]+Flow12[[#This Row],[Operations]]</f>
-        <v>1893</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes12[Total])</f>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow12[Opening balance])</f>
-        <v>18319.95</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow12[Operations])</f>
-        <v>2420</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow12[Closing balance])</f>
-        <v>20739.95</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses12[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9285,9 +9374,9 @@
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>12</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -9295,7 +9384,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses12[Total])</f>
-        <v>-4080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9313,7 +9402,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total12[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-4080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9322,7 +9411,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total12[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>6500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9340,7 +9429,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total12[Total])</f>
-        <v>2420</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9675,30 +9764,30 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="4">
         <v>100</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow1[[#This Row],[Bank]],operations[Product],Flow1[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-35</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <f ca="1">Flow1[[#This Row],[Opening balance]]+Flow1[[#This Row],[Operations]]</f>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -9708,30 +9797,30 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="4">
         <v>10.5</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow1[[#This Row],[Bank]],operations[Product],Flow1[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>255.5</v>
-      </c>
-      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <f ca="1">Flow1[[#This Row],[Opening balance]]+Flow1[[#This Row],[Operations]]</f>
-        <v>266</v>
+        <v>10.5</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>105.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9741,16 +9830,16 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="4">
         <v>600</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow1[[#This Row],[Bank]],operations[Product],Flow1[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1100</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <f ca="1">Flow1[[#This Row],[Opening balance]]+Flow1[[#This Row],[Operations]]</f>
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -9764,7 +9853,7 @@
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9774,30 +9863,30 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow1[[#This Row],[Bank]],operations[Product],Flow1[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-175</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <f ca="1">Flow1[[#This Row],[Opening balance]]+Flow1[[#This Row],[Operations]]</f>
-        <v>-175</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-1715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9807,30 +9896,30 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="4">
         <v>2000</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow1[[#This Row],[Bank]],operations[Product],Flow1[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-400</v>
-      </c>
-      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <f ca="1">Flow1[[#This Row],[Opening balance]]+Flow1[[#This Row],[Operations]]</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9840,16 +9929,16 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="4">
         <v>200</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow1[[#This Row],[Bank]],operations[Product],Flow1[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-50</v>
-      </c>
-      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <f ca="1">Flow1[[#This Row],[Opening balance]]+Flow1[[#This Row],[Operations]]</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -9863,7 +9952,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9873,54 +9962,54 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="4">
         <v>30</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow1[[#This Row],[Bank]],operations[Product],Flow1[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>150</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <f ca="1">Flow1[[#This Row],[Opening balance]]+Flow1[[#This Row],[Operations]]</f>
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes1[Total])</f>
-        <v>5655.5</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4">
         <f>SUBTOTAL(9,Flow1[Opening balance])</f>
         <v>2940.5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow1[Operations])</f>
-        <v>845.5</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <f ca="1">SUBTOTAL(109,Flow1[Closing balance])</f>
-        <v>3786</v>
+        <v>2940.5</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9929,16 +10018,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses1[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>1</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -9946,7 +10035,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses1[Total])</f>
-        <v>-4810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9964,7 +10053,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total1[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-4810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9973,7 +10062,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total1[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>5655.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9991,7 +10080,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total1[Total])</f>
-        <v>845.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10063,17 +10152,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>65</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow2[[#This Row],[Bank]],operations[Product],Flow2[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>35</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow2[[#This Row],[Opening balance]]+Flow2[[#This Row],[Operations]]</f>
-        <v>100</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -10087,7 +10176,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10097,24 +10186,24 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>266</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow2[[#This Row],[Bank]],operations[Product],Flow2[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>15</v>
-      </c>
-      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow2[[#This Row],[Opening balance]]+Flow2[[#This Row],[Operations]]</f>
-        <v>281</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -10131,17 +10220,17 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1700</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow2[[#This Row],[Bank]],operations[Product],Flow2[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>2039.5</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow2[[#This Row],[Opening balance]]+Flow2[[#This Row],[Operations]]</f>
-        <v>3739.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -10155,7 +10244,7 @@
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10165,31 +10254,31 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-175</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow2[[#This Row],[Bank]],operations[Product],Flow2[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>175</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow2[[#This Row],[Opening balance]]+Flow2[[#This Row],[Operations]]</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-405.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10199,31 +10288,31 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1600</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow2[[#This Row],[Bank]],operations[Product],Flow2[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-400</v>
-      </c>
-      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow2[[#This Row],[Opening balance]]+Flow2[[#This Row],[Operations]]</f>
-        <v>1200</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -10233,17 +10322,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>150</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow2[[#This Row],[Bank]],operations[Product],Flow2[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>100</v>
-      </c>
-      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow2[[#This Row],[Opening balance]]+Flow2[[#This Row],[Operations]]</f>
-        <v>250</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -10257,7 +10346,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10267,55 +10356,55 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>180</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow2[[#This Row],[Bank]],operations[Product],Flow2[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>500</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow2[[#This Row],[Opening balance]]+Flow2[[#This Row],[Operations]]</f>
-        <v>680</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes2[Total])</f>
-        <v>6565</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow2[Opening balance])</f>
-        <v>3786</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow2[Operations])</f>
-        <v>2464.5</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow2[Closing balance])</f>
-        <v>6250.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10324,16 +10413,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses2[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>2</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -10341,7 +10430,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses2[Total])</f>
-        <v>-4100.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -10359,7 +10448,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total2[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-4100.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -10368,7 +10457,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total2[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>6565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -10386,7 +10475,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total2[Total])</f>
-        <v>2464.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10458,17 +10547,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>100</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow3[[#This Row],[Bank]],operations[Product],Flow3[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>67.5</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow3[[#This Row],[Opening balance]]+Flow3[[#This Row],[Operations]]</f>
-        <v>167.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -10482,7 +10571,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10492,31 +10581,31 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>281</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow3[[#This Row],[Bank]],operations[Product],Flow3[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow3[[#This Row],[Opening balance]]+Flow3[[#This Row],[Operations]]</f>
-        <v>286</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-469.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10526,31 +10615,31 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>3739.5</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow3[[#This Row],[Bank]],operations[Product],Flow3[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>821.59999999999991</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow3[[#This Row],[Opening balance]]+Flow3[[#This Row],[Operations]]</f>
-        <v>4561.1000000000004</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10560,17 +10649,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow3[[#This Row],[Bank]],operations[Product],Flow3[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-104.5</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow3[[#This Row],[Opening balance]]+Flow3[[#This Row],[Operations]]</f>
-        <v>-104.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -10584,7 +10673,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-734.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10594,31 +10683,31 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1200</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow3[[#This Row],[Bank]],operations[Product],Flow3[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow3[[#This Row],[Opening balance]]+Flow3[[#This Row],[Operations]]</f>
-        <v>1200</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -10628,17 +10717,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>250</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow3[[#This Row],[Bank]],operations[Product],Flow3[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-24.49</v>
-      </c>
-      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow3[[#This Row],[Opening balance]]+Flow3[[#This Row],[Operations]]</f>
-        <v>225.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -10652,7 +10741,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10662,55 +10751,55 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>680</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow3[[#This Row],[Bank]],operations[Product],Flow3[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-9.5</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow3[[#This Row],[Opening balance]]+Flow3[[#This Row],[Operations]]</f>
-        <v>670.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes3[Total])</f>
-        <v>4655</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow3[Opening balance])</f>
-        <v>6250.5</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow3[Operations])</f>
-        <v>755.6099999999999</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow3[Closing balance])</f>
-        <v>7006.1100000000006</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-79.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10719,16 +10808,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses3[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-82.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>3</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -10736,7 +10825,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses3[Total])</f>
-        <v>-3899.3900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -10754,7 +10843,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total3[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-3899.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -10763,7 +10852,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total3[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>4655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -10781,7 +10870,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total3[Total])</f>
-        <v>755.61000000000013</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10853,17 +10942,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>167.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow4[[#This Row],[Bank]],operations[Product],Flow4[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>101</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow4[[#This Row],[Opening balance]]+Flow4[[#This Row],[Operations]]</f>
-        <v>268.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -10877,7 +10966,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10887,31 +10976,31 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>286</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow4[[#This Row],[Bank]],operations[Product],Flow4[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>50</v>
-      </c>
-      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow4[[#This Row],[Opening balance]]+Flow4[[#This Row],[Operations]]</f>
-        <v>336</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10921,31 +11010,31 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>4561.1000000000004</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow4[[#This Row],[Bank]],operations[Product],Flow4[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>562.72999999999968</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow4[[#This Row],[Opening balance]]+Flow4[[#This Row],[Operations]]</f>
-        <v>5123.83</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-1057.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10955,17 +11044,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-104.5</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow4[[#This Row],[Bank]],operations[Product],Flow4[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>13.110000000000007</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow4[[#This Row],[Opening balance]]+Flow4[[#This Row],[Operations]]</f>
-        <v>-91.389999999999986</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -10979,7 +11068,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-372.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10989,31 +11078,31 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1200</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow4[[#This Row],[Bank]],operations[Product],Flow4[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow4[[#This Row],[Opening balance]]+Flow4[[#This Row],[Operations]]</f>
-        <v>1200</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -11023,17 +11112,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>225.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow4[[#This Row],[Bank]],operations[Product],Flow4[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow4[[#This Row],[Opening balance]]+Flow4[[#This Row],[Operations]]</f>
-        <v>225.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -11047,7 +11136,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -11057,55 +11146,55 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>670.5</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow4[[#This Row],[Bank]],operations[Product],Flow4[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow4[[#This Row],[Opening balance]]+Flow4[[#This Row],[Operations]]</f>
-        <v>670.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes4[Total])</f>
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow4[Opening balance])</f>
-        <v>7006.1100000000006</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow4[Operations])</f>
-        <v>726.83999999999969</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow4[Closing balance])</f>
-        <v>7732.95</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -11114,16 +11203,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses4[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-82.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>4</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -11131,7 +11220,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses4[Total])</f>
-        <v>-3973.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11149,7 +11238,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total4[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-3973.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -11158,7 +11247,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total4[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>4700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -11176,7 +11265,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total4[Total])</f>
-        <v>726.84000000000015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11248,17 +11337,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>268.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow5[[#This Row],[Bank]],operations[Product],Flow5[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-50</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow5[[#This Row],[Opening balance]]+Flow5[[#This Row],[Operations]]</f>
-        <v>218.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -11272,7 +11361,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses5[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -11282,17 +11371,17 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>336</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow5[[#This Row],[Bank]],operations[Product],Flow5[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow5[[#This Row],[Opening balance]]+Flow5[[#This Row],[Operations]]</f>
-        <v>336</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -11316,17 +11405,17 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>5123.83</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow5[[#This Row],[Bank]],operations[Product],Flow5[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>2328.61</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow5[[#This Row],[Opening balance]]+Flow5[[#This Row],[Operations]]</f>
-        <v>7452.4400000000005</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -11340,7 +11429,7 @@
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses5[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11350,17 +11439,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-91.389999999999986</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow5[[#This Row],[Bank]],operations[Product],Flow5[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-908.61</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow5[[#This Row],[Opening balance]]+Flow5[[#This Row],[Operations]]</f>
-        <v>-1000</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -11374,7 +11463,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses5[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -11384,24 +11473,24 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1200</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow5[[#This Row],[Bank]],operations[Product],Flow5[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow5[[#This Row],[Opening balance]]+Flow5[[#This Row],[Operations]]</f>
-        <v>1200</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes5[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -11418,17 +11507,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>225.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow5[[#This Row],[Bank]],operations[Product],Flow5[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow5[[#This Row],[Opening balance]]+Flow5[[#This Row],[Operations]]</f>
-        <v>225.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -11442,7 +11531,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses5[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -11452,24 +11541,24 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>670.5</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow5[[#This Row],[Bank]],operations[Product],Flow5[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-80</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow5[[#This Row],[Opening balance]]+Flow5[[#This Row],[Operations]]</f>
-        <v>590.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes5[Total])</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -11483,17 +11572,17 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow5[Opening balance])</f>
-        <v>7732.95</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow5[Operations])</f>
-        <v>1290</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow5[Closing balance])</f>
-        <v>9022.9500000000007</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -11509,16 +11598,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses5[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>5</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -11526,7 +11615,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses5[Total])</f>
-        <v>-3210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11544,7 +11633,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total5[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-3210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -11553,7 +11642,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total5[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -11571,7 +11660,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total5[Total])</f>
-        <v>1290</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11643,31 +11732,31 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>218.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow6[[#This Row],[Bank]],operations[Product],Flow6[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>250</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow6[[#This Row],[Opening balance]]+Flow6[[#This Row],[Operations]]</f>
-        <v>468.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -11677,17 +11766,17 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>336</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow6[[#This Row],[Bank]],operations[Product],Flow6[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow6[[#This Row],[Opening balance]]+Flow6[[#This Row],[Operations]]</f>
-        <v>336</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -11701,7 +11790,7 @@
       </c>
       <c r="K3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -11711,17 +11800,17 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>7452.4400000000005</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow6[[#This Row],[Bank]],operations[Product],Flow6[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1420</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow6[[#This Row],[Opening balance]]+Flow6[[#This Row],[Operations]]</f>
-        <v>8872.44</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -11735,7 +11824,7 @@
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11745,17 +11834,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-1000</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow6[[#This Row],[Bank]],operations[Product],Flow6[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-300</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow6[[#This Row],[Opening balance]]+Flow6[[#This Row],[Operations]]</f>
-        <v>-1300</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -11769,7 +11858,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -11779,31 +11868,31 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1200</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow6[[#This Row],[Bank]],operations[Product],Flow6[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow6[[#This Row],[Opening balance]]+Flow6[[#This Row],[Operations]]</f>
-        <v>1200</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -11813,17 +11902,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>225.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow6[[#This Row],[Bank]],operations[Product],Flow6[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow6[[#This Row],[Opening balance]]+Flow6[[#This Row],[Operations]]</f>
-        <v>225.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -11837,7 +11926,7 @@
       </c>
       <c r="K7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -11847,24 +11936,24 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>590.5</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow6[[#This Row],[Bank]],operations[Product],Flow6[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-200</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow6[[#This Row],[Opening balance]]+Flow6[[#This Row],[Operations]]</f>
-        <v>390.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes6[Total])</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -11878,17 +11967,17 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow6[Opening balance])</f>
-        <v>9022.9500000000007</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow6[Operations])</f>
-        <v>1170</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow6[Closing balance])</f>
-        <v>10192.950000000001</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -11904,16 +11993,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses6[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>6</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -11921,7 +12010,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses6[Total])</f>
-        <v>-3730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11939,7 +12028,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total6[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-3730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -11948,7 +12037,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total6[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -11966,7 +12055,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total6[Total])</f>
-        <v>1170</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12038,17 +12127,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" cm="1">
+      <c r="C2" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>468.5</v>
-      </c>
-      <c r="D2" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow7[[#This Row],[Bank]],operations[Product],Flow7[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-100</v>
-      </c>
-      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="e" vm="2">
         <f ca="1">Flow7[[#This Row],[Opening balance]]+Flow7[[#This Row],[Operations]]</f>
-        <v>368.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -12062,7 +12151,7 @@
       </c>
       <c r="K2" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12072,31 +12161,31 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" cm="1">
+      <c r="C3" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>336</v>
-      </c>
-      <c r="D3" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow7[[#This Row],[Bank]],operations[Product],Flow7[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1050</v>
-      </c>
-      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="e" vm="2">
         <f ca="1">Flow7[[#This Row],[Opening balance]]+Flow7[[#This Row],[Operations]]</f>
-        <v>1386</v>
+        <v>#NAME?</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12106,31 +12195,31 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" cm="1">
+      <c r="C4" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>8872.44</v>
-      </c>
-      <c r="D4" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow7[[#This Row],[Bank]],operations[Product],Flow7[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1010</v>
-      </c>
-      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e" vm="2">
         <f ca="1">Flow7[[#This Row],[Opening balance]]+Flow7[[#This Row],[Operations]]</f>
-        <v>9882.44</v>
+        <v>#NAME?</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12140,17 +12229,17 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" cm="1">
+      <c r="C5" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>-1300</v>
-      </c>
-      <c r="D5" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow7[[#This Row],[Bank]],operations[Product],Flow7[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>1165</v>
-      </c>
-      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="e" vm="2">
         <f ca="1">Flow7[[#This Row],[Opening balance]]+Flow7[[#This Row],[Operations]]</f>
-        <v>-135</v>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -12164,7 +12253,7 @@
       </c>
       <c r="K5" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12174,31 +12263,31 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" cm="1">
+      <c r="C6" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>1200</v>
-      </c>
-      <c r="D6" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow7[[#This Row],[Bank]],operations[Product],Flow7[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-180</v>
-      </c>
-      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="e" vm="2">
         <f ca="1">Flow7[[#This Row],[Opening balance]]+Flow7[[#This Row],[Operations]]</f>
-        <v>1020</v>
+        <v>#NAME?</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12208,24 +12297,24 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" cm="1">
+      <c r="C7" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>225.51</v>
-      </c>
-      <c r="D7" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow7[[#This Row],[Bank]],operations[Product],Flow7[[#This Row],[Product]],operations[Month],$B$11)</f>
-        <v>-30</v>
-      </c>
-      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="e" vm="2">
         <f ca="1">Flow7[[#This Row],[Opening balance]]+Flow7[[#This Row],[Operations]]</f>
-        <v>195.51</v>
+        <v>#NAME?</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Incomes7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -12242,24 +12331,24 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" cm="1">
+      <c r="C8" s="4" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Flow" &amp; $B$11-1 &amp; "[@[Closing balance]]")</f>
-        <v>390.5</v>
-      </c>
-      <c r="D8" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4">
         <f ca="1">SUMIFS(operations[Amount],operations[Bank],Flow7[[#This Row],[Bank]],operations[Product],Flow7[[#This Row],[Product]],operations[Month],$B$11)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="4" t="e" vm="2">
         <f ca="1">Flow7[[#This Row],[Opening balance]]+Flow7[[#This Row],[Operations]]</f>
-        <v>390.5</v>
+        <v>#NAME?</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">SUBTOTAL(9,Incomes7[Total])</f>
-        <v>5920</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -12273,17 +12362,17 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(9,Flow7[Opening balance])</f>
-        <v>10192.950000000001</v>
-      </c>
-      <c r="D9" s="20">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4">
         <f ca="1">SUBTOTAL(109,Flow7[Operations])</f>
-        <v>2915</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e" vm="2">
         <f ca="1">SUBTOTAL(109,Flow7[Closing balance])</f>
-        <v>13107.95</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -12299,16 +12388,16 @@
       </c>
       <c r="K10" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Category], Expenses7[[#This Row],[Category]], operations[Month], $B$11)</f>
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="str" cm="1">
+      <c r="B11" s="19" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
-        <v>7</v>
+        <v>#NAME?</v>
       </c>
       <c r="C11" s="6"/>
       <c r="J11" t="s">
@@ -12316,7 +12405,7 @@
       </c>
       <c r="K11" s="4">
         <f ca="1">SUBTOTAL(9,Expenses7[Total])</f>
-        <v>-3005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12334,7 +12423,7 @@
       </c>
       <c r="B14" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total7[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>-3005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -12343,7 +12432,7 @@
       </c>
       <c r="B15" s="4">
         <f ca="1">SUMIFS(operations[Amount], operations[Type], Total7[[#This Row],[Type]], operations[Month], $B$11)</f>
-        <v>5920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12361,7 +12450,7 @@
       </c>
       <c r="B17" s="4">
         <f ca="1">SUBTOTAL(9,Total7[Total])</f>
-        <v>2915</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
